--- a/IS 456 WALL/IS456_Wall_Specifications__0831_1.xlsx
+++ b/IS 456 WALL/IS456_Wall_Specifications__0831_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="8265" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="8265" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Scope" sheetId="1" r:id="rId1"/>
@@ -241,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="257">
   <si>
     <t>Development Specifications</t>
   </si>
@@ -662,9 +662,6 @@
   </si>
   <si>
     <t>Seismic</t>
-  </si>
-  <si>
-    <t>SEISMIC</t>
   </si>
   <si>
     <t>ALL</t>
@@ -1118,6 +1115,15 @@
   </si>
   <si>
     <t>Change PM CURVE i.e single PM curve as per IS Code</t>
+  </si>
+  <si>
+    <t>Axial[+/-]</t>
+  </si>
+  <si>
+    <t>SEISMICMOMENT[+/-]</t>
+  </si>
+  <si>
+    <t>CHANGED PM CURVE AS PER IS456:2000</t>
   </si>
 </sst>
 </file>
@@ -2231,6 +2237,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2276,13 +2289,34 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2292,63 +2326,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2378,20 +2355,41 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2411,10 +2409,37 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2443,25 +2468,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2719,20 +2725,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>139211</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>156883</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>148736</xdr:rowOff>
+      <xdr:colOff>575983</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>111498</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="13" name="Picture 12"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2752,8 +2758,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="2337288"/>
-          <a:ext cx="8921994" cy="23272506"/>
+          <a:off x="840442" y="26580353"/>
+          <a:ext cx="7938247" cy="19071851"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2774,20 +2780,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>183173</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>146538</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>425823</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>602273</xdr:colOff>
-      <xdr:row>253</xdr:row>
-      <xdr:rowOff>30040</xdr:rowOff>
+      <xdr:colOff>418539</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>155201</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPr id="14" name="Picture 13"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2807,8 +2813,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1560635" y="26889807"/>
-          <a:ext cx="7995138" cy="19483021"/>
+          <a:off x="425823" y="2655794"/>
+          <a:ext cx="8878981" cy="22779878"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7670,8 +7676,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="22374225"/>
-          <a:ext cx="6466667" cy="7647619"/>
+          <a:off x="0" y="22644588"/>
+          <a:ext cx="6493044" cy="7739939"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7761,13 +7767,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>247</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>31506</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>113443</xdr:colOff>
-      <xdr:row>285</xdr:row>
-      <xdr:rowOff>56296</xdr:rowOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>166200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7784,8 +7790,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="114300" y="44805600"/>
-          <a:ext cx="6857143" cy="6828571"/>
+          <a:off x="114300" y="44608506"/>
+          <a:ext cx="6867169" cy="6812220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10106,8 +10112,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21684095" y="8400182"/>
-          <a:ext cx="1784204" cy="767196"/>
+          <a:off x="21716811" y="8457332"/>
+          <a:ext cx="1789174" cy="772166"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10225,8 +10231,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="21240750" y="8783780"/>
-          <a:ext cx="443345" cy="297008"/>
+          <a:off x="21271810" y="8843415"/>
+          <a:ext cx="445001" cy="299493"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -14797,6 +14803,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>612816</xdr:colOff>
+      <xdr:row>523</xdr:row>
+      <xdr:rowOff>99571</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>267793</xdr:colOff>
+      <xdr:row>538</xdr:row>
+      <xdr:rowOff>85395</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="612816" y="96295502"/>
+          <a:ext cx="5803529" cy="2744790"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -19304,41 +19348,41 @@
   </cols>
   <sheetData>
     <row r="4" spans="5:13" ht="14.25" customHeight="1">
-      <c r="G4" s="167" t="s">
+      <c r="G4" s="170" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="167"/>
-      <c r="L4" s="167"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="170"/>
+      <c r="K4" s="170"/>
+      <c r="L4" s="170"/>
       <c r="M4" s="7"/>
     </row>
     <row r="5" spans="5:13" ht="14.25" customHeight="1">
-      <c r="G5" s="167"/>
-      <c r="H5" s="167"/>
-      <c r="I5" s="167"/>
-      <c r="J5" s="167"/>
-      <c r="K5" s="167"/>
-      <c r="L5" s="167"/>
+      <c r="G5" s="170"/>
+      <c r="H5" s="170"/>
+      <c r="I5" s="170"/>
+      <c r="J5" s="170"/>
+      <c r="K5" s="170"/>
+      <c r="L5" s="170"/>
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="5:13" ht="14.25" customHeight="1">
-      <c r="G6" s="167"/>
-      <c r="H6" s="167"/>
-      <c r="I6" s="167"/>
-      <c r="J6" s="167"/>
-      <c r="K6" s="167"/>
-      <c r="L6" s="167"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="170"/>
+      <c r="J6" s="170"/>
+      <c r="K6" s="170"/>
+      <c r="L6" s="170"/>
       <c r="M6" s="7"/>
     </row>
     <row r="7" spans="5:13" ht="14.25" customHeight="1">
-      <c r="G7" s="167"/>
-      <c r="H7" s="167"/>
-      <c r="I7" s="167"/>
-      <c r="J7" s="167"/>
-      <c r="K7" s="167"/>
-      <c r="L7" s="167"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="170"/>
+      <c r="K7" s="170"/>
+      <c r="L7" s="170"/>
       <c r="M7" s="7"/>
     </row>
     <row r="8" spans="5:13" ht="14.25" customHeight="1">
@@ -19360,118 +19404,118 @@
       </c>
       <c r="L13" s="21">
         <f ca="1">(TODAY())</f>
-        <v>42979</v>
+        <v>42982</v>
       </c>
     </row>
     <row r="14" spans="5:13" ht="15">
       <c r="E14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="168" t="s">
-        <v>199</v>
-      </c>
-      <c r="G14" s="168"/>
-      <c r="H14" s="168"/>
-      <c r="I14" s="168"/>
-      <c r="J14" s="168"/>
-      <c r="K14" s="168"/>
-      <c r="L14" s="169"/>
+      <c r="F14" s="171" t="s">
+        <v>198</v>
+      </c>
+      <c r="G14" s="171"/>
+      <c r="H14" s="171"/>
+      <c r="I14" s="171"/>
+      <c r="J14" s="171"/>
+      <c r="K14" s="171"/>
+      <c r="L14" s="172"/>
     </row>
     <row r="15" spans="5:13" ht="15">
       <c r="E15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="163" t="s">
+      <c r="F15" s="166" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="163"/>
-      <c r="H15" s="163"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="163"/>
-      <c r="K15" s="163"/>
-      <c r="L15" s="164"/>
+      <c r="G15" s="166"/>
+      <c r="H15" s="166"/>
+      <c r="I15" s="166"/>
+      <c r="J15" s="166"/>
+      <c r="K15" s="166"/>
+      <c r="L15" s="167"/>
     </row>
     <row r="16" spans="5:13" ht="15">
       <c r="E16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="163" t="s">
+      <c r="F16" s="166" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="163"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="163"/>
-      <c r="K16" s="163"/>
-      <c r="L16" s="164"/>
+      <c r="G16" s="166"/>
+      <c r="H16" s="166"/>
+      <c r="I16" s="166"/>
+      <c r="J16" s="166"/>
+      <c r="K16" s="166"/>
+      <c r="L16" s="167"/>
     </row>
     <row r="17" spans="5:12" ht="15">
       <c r="E17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="163" t="s">
+      <c r="F17" s="166" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="163"/>
-      <c r="H17" s="163"/>
-      <c r="I17" s="163"/>
-      <c r="J17" s="163"/>
-      <c r="K17" s="163"/>
-      <c r="L17" s="164"/>
+      <c r="G17" s="166"/>
+      <c r="H17" s="166"/>
+      <c r="I17" s="166"/>
+      <c r="J17" s="166"/>
+      <c r="K17" s="166"/>
+      <c r="L17" s="167"/>
     </row>
     <row r="18" spans="5:12" ht="30">
       <c r="E18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="163"/>
-      <c r="G18" s="163"/>
-      <c r="H18" s="163"/>
-      <c r="I18" s="163"/>
-      <c r="J18" s="163"/>
-      <c r="K18" s="163"/>
-      <c r="L18" s="164"/>
+      <c r="F18" s="166"/>
+      <c r="G18" s="166"/>
+      <c r="H18" s="166"/>
+      <c r="I18" s="166"/>
+      <c r="J18" s="166"/>
+      <c r="K18" s="166"/>
+      <c r="L18" s="167"/>
     </row>
     <row r="19" spans="5:12" ht="15">
       <c r="E19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="163" t="s">
+      <c r="F19" s="166" t="s">
         <v>77</v>
       </c>
-      <c r="G19" s="163"/>
-      <c r="H19" s="163"/>
-      <c r="I19" s="163"/>
-      <c r="J19" s="163"/>
-      <c r="K19" s="163"/>
-      <c r="L19" s="164"/>
+      <c r="G19" s="166"/>
+      <c r="H19" s="166"/>
+      <c r="I19" s="166"/>
+      <c r="J19" s="166"/>
+      <c r="K19" s="166"/>
+      <c r="L19" s="167"/>
     </row>
     <row r="20" spans="5:12" ht="15">
       <c r="E20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="163" t="s">
+      <c r="F20" s="166" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="163"/>
-      <c r="H20" s="163"/>
-      <c r="I20" s="163"/>
-      <c r="J20" s="163"/>
-      <c r="K20" s="163"/>
-      <c r="L20" s="164"/>
+      <c r="G20" s="166"/>
+      <c r="H20" s="166"/>
+      <c r="I20" s="166"/>
+      <c r="J20" s="166"/>
+      <c r="K20" s="166"/>
+      <c r="L20" s="167"/>
     </row>
     <row r="21" spans="5:12" ht="33.75" customHeight="1" thickBot="1">
       <c r="E21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="165" t="s">
+      <c r="F21" s="168" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="165"/>
-      <c r="H21" s="165"/>
-      <c r="I21" s="165"/>
-      <c r="J21" s="165"/>
-      <c r="K21" s="165"/>
-      <c r="L21" s="166"/>
+      <c r="G21" s="168"/>
+      <c r="H21" s="168"/>
+      <c r="I21" s="168"/>
+      <c r="J21" s="168"/>
+      <c r="K21" s="168"/>
+      <c r="L21" s="169"/>
     </row>
     <row r="22" spans="5:12" ht="15">
       <c r="E22" s="3"/>
@@ -19511,8 +19555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CM147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P162" sqref="P162"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -19521,96 +19565,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170" t="s">
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="170"/>
-      <c r="K1" s="170"/>
-      <c r="L1" s="170"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="173"/>
+      <c r="K1" s="173"/>
+      <c r="L1" s="173"/>
       <c r="M1" s="26"/>
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="170"/>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
+      <c r="A2" s="173"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="173"/>
+      <c r="L2" s="173"/>
       <c r="M2" s="26"/>
       <c r="N2" s="26"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="170"/>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
+      <c r="A3" s="173"/>
+      <c r="B3" s="173"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="173"/>
+      <c r="I3" s="173"/>
+      <c r="J3" s="173"/>
+      <c r="K3" s="173"/>
+      <c r="L3" s="173"/>
       <c r="M3" s="26"/>
       <c r="N3" s="26"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="170"/>
-      <c r="B4" s="170"/>
-      <c r="C4" s="170"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="170"/>
-      <c r="J4" s="170"/>
-      <c r="K4" s="170"/>
-      <c r="L4" s="170"/>
+      <c r="A4" s="173"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="173"/>
+      <c r="D4" s="173"/>
+      <c r="E4" s="173"/>
+      <c r="F4" s="173"/>
+      <c r="G4" s="173"/>
+      <c r="H4" s="173"/>
+      <c r="I4" s="173"/>
+      <c r="J4" s="173"/>
+      <c r="K4" s="173"/>
+      <c r="L4" s="173"/>
       <c r="M4" s="26"/>
       <c r="N4" s="26"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="H10" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="91:91">
       <c r="CM38" s="108"/>
     </row>
     <row r="56" spans="9:12">
-      <c r="I56" s="174"/>
-      <c r="J56" s="174"/>
-      <c r="K56" s="174"/>
-      <c r="L56" s="174"/>
+      <c r="I56" s="177"/>
+      <c r="J56" s="177"/>
+      <c r="K56" s="177"/>
+      <c r="L56" s="177"/>
     </row>
     <row r="102" spans="33:33">
       <c r="AG102" s="24" t="s">
@@ -19619,7 +19663,7 @@
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -19671,14 +19715,14 @@
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
       <c r="E1" s="27"/>
-      <c r="F1" s="167" t="s">
+      <c r="F1" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="170"/>
+      <c r="K1" s="170"/>
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
       <c r="N1" s="27"/>
@@ -19689,12 +19733,12 @@
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
       <c r="L2" s="27"/>
       <c r="M2" s="27"/>
       <c r="N2" s="27"/>
@@ -19705,12 +19749,12 @@
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="170"/>
       <c r="L3" s="27"/>
       <c r="M3" s="27"/>
       <c r="N3" s="27"/>
@@ -19721,12 +19765,12 @@
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="167"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="170"/>
+      <c r="K4" s="170"/>
       <c r="L4" s="27"/>
       <c r="M4" s="27"/>
       <c r="N4" s="27"/>
@@ -19741,7 +19785,7 @@
         <v>33</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
@@ -19756,25 +19800,25 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="136" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B7" s="137">
         <v>4160</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D7" s="137" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E7" s="137">
         <v>60</v>
       </c>
       <c r="F7" s="138" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G7" s="139" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H7" s="137">
         <v>2640000</v>
@@ -19783,32 +19827,32 @@
         <v>114</v>
       </c>
       <c r="J7" s="37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K7" s="137"/>
       <c r="L7" s="65"/>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="155" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B8" s="37">
         <v>250</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="37"/>
       <c r="F8" s="52"/>
       <c r="G8" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H8" s="37">
         <v>6480000000</v>
       </c>
       <c r="I8" s="106" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J8" s="37"/>
       <c r="K8" s="37"/>
@@ -19822,22 +19866,22 @@
         <v>25</v>
       </c>
       <c r="C9" s="141" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="37"/>
       <c r="F9" s="52"/>
       <c r="G9" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H9" s="37">
         <v>90000000</v>
       </c>
       <c r="I9" s="106" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J9" s="156" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K9" s="37"/>
       <c r="L9" s="63"/>
@@ -19850,7 +19894,7 @@
         <v>415</v>
       </c>
       <c r="C10" s="141" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
@@ -19884,13 +19928,13 @@
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B12" s="37">
         <v>3500</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D12" s="37"/>
       <c r="E12" s="37"/>
@@ -19904,13 +19948,13 @@
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B13" s="37">
         <v>3500</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D13" s="37"/>
       <c r="E13" s="37"/>
@@ -19967,7 +20011,7 @@
     </row>
     <row r="16" spans="1:27" ht="15">
       <c r="A16" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B16" s="44"/>
       <c r="C16" s="46"/>
@@ -20000,7 +20044,7 @@
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="134" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B17" s="29">
         <f>H7</f>
@@ -20036,14 +20080,14 @@
     </row>
     <row r="18" spans="1:27" ht="15">
       <c r="A18" s="47" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B18" s="29">
         <f>H8</f>
         <v>6480000000</v>
       </c>
       <c r="C18" s="106" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D18" s="105"/>
       <c r="E18" s="29"/>
@@ -20072,14 +20116,14 @@
     </row>
     <row r="19" spans="1:27" ht="15">
       <c r="A19" s="47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B19" s="29">
         <f>H9</f>
         <v>90000000</v>
       </c>
       <c r="C19" s="106" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D19" s="105"/>
       <c r="E19" s="29"/>
@@ -20166,11 +20210,11 @@
     </row>
     <row r="22" spans="1:27" ht="15">
       <c r="A22" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B22" s="29"/>
       <c r="C22" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
@@ -20199,14 +20243,14 @@
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B23" s="29">
         <f>1*B12</f>
         <v>3500</v>
       </c>
       <c r="C23" s="127" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D23" s="105"/>
       <c r="E23" s="29"/>
@@ -20235,14 +20279,14 @@
     </row>
     <row r="24" spans="1:27" ht="15">
       <c r="A24" s="47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B24" s="35">
         <f>1*B13</f>
         <v>3500</v>
       </c>
       <c r="C24" s="127" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D24" s="131"/>
       <c r="E24" s="35"/>
@@ -20300,14 +20344,14 @@
     </row>
     <row r="26" spans="1:27">
       <c r="A26" s="47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B26" s="35">
         <f>H8/H7</f>
         <v>2454.5454545454545</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D26" s="35"/>
       <c r="E26" s="35"/>
@@ -20316,7 +20360,7 @@
       <c r="H26" s="35"/>
       <c r="I26" s="35"/>
       <c r="J26" s="127" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K26" s="35"/>
       <c r="L26" s="48"/>
@@ -20338,14 +20382,14 @@
     </row>
     <row r="27" spans="1:27">
       <c r="A27" s="47" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B27" s="35">
         <f>H9/H7</f>
         <v>34.090909090909093</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D27" s="35"/>
       <c r="E27" s="35"/>
@@ -20403,14 +20447,14 @@
     </row>
     <row r="29" spans="1:27">
       <c r="A29" s="47" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B29" s="35">
         <f>B12/500 +B8/30</f>
         <v>15.333333333333334</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D29" s="35"/>
       <c r="E29" s="35"/>
@@ -20439,14 +20483,14 @@
     </row>
     <row r="30" spans="1:27">
       <c r="A30" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B30" s="35">
         <f>B13/500 +B7/30</f>
         <v>145.66666666666666</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D30" s="35"/>
       <c r="E30" s="35"/>
@@ -20503,7 +20547,7 @@
     </row>
     <row r="32" spans="1:27">
       <c r="A32" s="121" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B32" s="122">
         <f>B23/B8</f>
@@ -20539,7 +20583,7 @@
     </row>
     <row r="33" spans="1:27">
       <c r="A33" s="121" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B33" s="35">
         <f>B13/B7</f>
@@ -20601,7 +20645,7 @@
     </row>
     <row r="35" spans="1:27">
       <c r="A35" s="159" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B35" s="157"/>
       <c r="C35" s="157"/>
@@ -20661,14 +20705,14 @@
     </row>
     <row r="37" spans="1:27">
       <c r="A37" s="121" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B37" s="122">
         <f>B8*B7*B7*B7/12</f>
         <v>1499818666666.6667</v>
       </c>
       <c r="C37" s="122" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D37" s="122"/>
       <c r="E37" s="122"/>
@@ -20697,14 +20741,14 @@
     </row>
     <row r="38" spans="1:27">
       <c r="A38" s="121" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B38" s="122">
         <f>B7*B8</f>
         <v>1040000</v>
       </c>
       <c r="C38" s="122" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D38" s="122"/>
       <c r="E38" s="122"/>
@@ -20733,14 +20777,14 @@
     </row>
     <row r="39" spans="1:27">
       <c r="A39" s="47" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B39" s="35">
         <f>B7/2</f>
         <v>2080</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D39" s="35"/>
       <c r="E39" s="35"/>
@@ -20769,14 +20813,14 @@
     </row>
     <row r="40" spans="1:27">
       <c r="A40" s="47" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B40" s="35">
         <f>(H7/B38) +(H8*B39/B37)</f>
         <v>11.525147928994082</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D40" s="29"/>
       <c r="E40" s="35">
@@ -20784,7 +20828,7 @@
         <v>-6.4482248520710055</v>
       </c>
       <c r="F40" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G40" s="35"/>
       <c r="H40" s="35"/>
@@ -20839,14 +20883,14 @@
     </row>
     <row r="42" spans="1:27">
       <c r="A42" s="160" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B42" s="35">
         <f>0.2*B9</f>
         <v>5</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D42" s="35"/>
       <c r="E42" s="35"/>
@@ -20875,7 +20919,7 @@
     </row>
     <row r="43" spans="1:27">
       <c r="A43" s="121" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B43" s="122"/>
       <c r="C43" s="35"/>
@@ -20964,7 +21008,7 @@
     </row>
     <row r="46" spans="1:27">
       <c r="A46" s="159" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B46" s="157"/>
       <c r="C46" s="157"/>
@@ -20995,7 +21039,7 @@
     </row>
     <row r="47" spans="1:27">
       <c r="A47" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B47" s="35">
         <f>B12/B7</f>
@@ -21009,7 +21053,7 @@
       <c r="H47" s="35"/>
       <c r="I47" s="35"/>
       <c r="J47" s="127" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K47" s="35"/>
       <c r="L47" s="48"/>
@@ -21060,17 +21104,17 @@
     </row>
     <row r="49" spans="1:27" ht="15">
       <c r="A49" s="47" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B49" s="35">
         <f>0.0025*B8*1000</f>
         <v>625</v>
       </c>
       <c r="C49" s="122" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E49" s="152"/>
       <c r="F49" s="35"/>
@@ -21098,17 +21142,17 @@
     </row>
     <row r="50" spans="1:27">
       <c r="A50" s="47" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B50" s="35">
         <f>(0.0025+0.5*(1-1000/B8)*(0.0025-0.0025))*1000*B8</f>
         <v>625</v>
       </c>
       <c r="C50" s="122" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E50" s="35"/>
       <c r="F50" s="35"/>
@@ -21165,7 +21209,7 @@
     </row>
     <row r="52" spans="1:27">
       <c r="A52" s="159" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B52" s="157"/>
       <c r="C52" s="157"/>
@@ -21225,14 +21269,14 @@
     </row>
     <row r="54" spans="1:27">
       <c r="A54" s="47" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B54" s="35">
         <f>H10/(B7*B8)</f>
         <v>0.81346153846153846</v>
       </c>
       <c r="C54" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D54" s="35"/>
       <c r="E54" s="35"/>
@@ -21261,13 +21305,13 @@
     </row>
     <row r="55" spans="1:27">
       <c r="A55" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B55" s="35">
         <v>0.36</v>
       </c>
       <c r="C55" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D55" s="35"/>
       <c r="E55" s="35"/>
@@ -21276,7 +21320,7 @@
       <c r="H55" s="35"/>
       <c r="I55" s="35"/>
       <c r="J55" s="42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K55" s="35"/>
       <c r="L55" s="48"/>
@@ -21298,14 +21342,14 @@
     </row>
     <row r="56" spans="1:27">
       <c r="A56" s="47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B56" s="35">
         <f>(B54-B55)*B7*B8</f>
         <v>471600</v>
       </c>
       <c r="C56" s="35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D56" s="35"/>
       <c r="E56" s="35"/>
@@ -21340,7 +21384,7 @@
         <v>3.1</v>
       </c>
       <c r="C57" s="141" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D57" s="29"/>
       <c r="E57" s="42"/>
@@ -21349,7 +21393,7 @@
       <c r="H57" s="42"/>
       <c r="I57" s="42"/>
       <c r="J57" s="42" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K57" s="42"/>
       <c r="L57" s="49"/>
@@ -21371,7 +21415,7 @@
     </row>
     <row r="58" spans="1:27">
       <c r="A58" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B58" s="35"/>
       <c r="C58" s="35"/>
@@ -21402,7 +21446,7 @@
     </row>
     <row r="59" spans="1:27">
       <c r="A59" s="47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B59" s="35">
         <f>B56/(0.87*B10*B7)</f>
@@ -21465,7 +21509,7 @@
     </row>
     <row r="61" spans="1:27">
       <c r="A61" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B61" s="35"/>
       <c r="C61" s="162">
@@ -21528,7 +21572,7 @@
     </row>
     <row r="63" spans="1:27">
       <c r="A63" s="159" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B63" s="157"/>
       <c r="C63" s="157"/>
@@ -21539,7 +21583,7 @@
       <c r="H63" s="157"/>
       <c r="I63" s="157"/>
       <c r="J63" s="161" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K63" s="157"/>
       <c r="L63" s="158"/>
@@ -21561,7 +21605,7 @@
     </row>
     <row r="64" spans="1:27">
       <c r="A64" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B64" s="35">
         <v>1107000</v>
@@ -21570,14 +21614,14 @@
         <v>114</v>
       </c>
       <c r="D64" s="35" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E64" s="35">
         <v>20</v>
       </c>
       <c r="F64" s="35"/>
       <c r="G64" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H64" s="35">
         <f>B8</f>
@@ -21608,7 +21652,7 @@
       <c r="B65" s="35"/>
       <c r="C65" s="162"/>
       <c r="D65" s="35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E65" s="35">
         <f>B10</f>
@@ -21616,7 +21660,7 @@
       </c>
       <c r="F65" s="35"/>
       <c r="G65" s="35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H65" s="35">
         <v>3400</v>
@@ -21672,7 +21716,7 @@
     </row>
     <row r="67" spans="1:27">
       <c r="A67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B67" s="35">
         <f>B64/(E64*H64*H65)</f>
@@ -21738,7 +21782,7 @@
     </row>
     <row r="69" spans="1:27">
       <c r="A69" s="28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B69" s="35">
         <f>0.516</f>
@@ -21772,7 +21816,7 @@
     </row>
     <row r="70" spans="1:27">
       <c r="A70" s="28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B70" s="35">
         <f>(B67+B68)/(0.36+2*B68)</f>
@@ -21814,7 +21858,7 @@
       <c r="G71" s="35"/>
       <c r="H71" s="35"/>
       <c r="J71" s="35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K71" s="35"/>
       <c r="L71" s="48"/>
@@ -21836,7 +21880,7 @@
     </row>
     <row r="72" spans="1:27">
       <c r="A72" s="28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B72" s="35"/>
       <c r="C72" s="162">
@@ -21899,14 +21943,14 @@
     </row>
     <row r="74" spans="1:27">
       <c r="A74" s="47" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B74" s="35">
         <f>C72*E64*H64*H65*H65</f>
         <v>2530863415.3483381</v>
       </c>
       <c r="C74" s="35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D74" s="35"/>
       <c r="E74" s="35"/>
@@ -22102,7 +22146,7 @@
         <v>4160</v>
       </c>
       <c r="G80" s="60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H80" s="60" t="s">
         <v>43</v>
@@ -22112,7 +22156,7 @@
         <v>250</v>
       </c>
       <c r="J80" s="60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K80" s="60"/>
       <c r="L80" s="61"/>
@@ -22130,7 +22174,7 @@
         <v>0.81346153846153846</v>
       </c>
       <c r="D81" s="128" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E81" s="42" t="s">
         <v>30</v>
@@ -22142,7 +22186,7 @@
       <c r="H81" s="42"/>
       <c r="I81" s="42"/>
       <c r="J81" s="42" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K81" s="42"/>
       <c r="L81" s="49"/>
@@ -22152,7 +22196,7 @@
     </row>
     <row r="82" spans="1:15" ht="15">
       <c r="A82" s="41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B82" s="42"/>
       <c r="C82" s="42">
@@ -22160,7 +22204,7 @@
         <v>3217</v>
       </c>
       <c r="D82" s="128" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E82" s="29"/>
       <c r="F82" s="29"/>
@@ -22176,7 +22220,7 @@
     </row>
     <row r="83" spans="1:15" ht="15">
       <c r="A83" s="41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B83" s="42" t="s">
         <v>30</v>
@@ -22208,7 +22252,7 @@
         <v>1.0306461538461538</v>
       </c>
       <c r="D84" s="128" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E84" s="42"/>
       <c r="F84" s="42"/>
@@ -22216,7 +22260,7 @@
       <c r="H84" s="42"/>
       <c r="I84" s="42"/>
       <c r="J84" s="42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K84" s="42"/>
       <c r="L84" s="49"/>
@@ -22233,7 +22277,7 @@
         <v>3.1</v>
       </c>
       <c r="D85" s="128" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E85" s="42"/>
       <c r="F85" s="42"/>
@@ -22241,7 +22285,7 @@
       <c r="H85" s="42"/>
       <c r="I85" s="42"/>
       <c r="J85" s="42" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K85" s="42"/>
       <c r="L85" s="49"/>
@@ -22279,7 +22323,7 @@
         <v>2.5023902506578026</v>
       </c>
       <c r="D87" s="128" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E87" s="42"/>
       <c r="F87" s="42"/>
@@ -22407,7 +22451,7 @@
         <v>4.6087799473757096</v>
       </c>
       <c r="D94" s="128" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E94" s="29"/>
       <c r="F94" s="29"/>
@@ -22457,7 +22501,7 @@
     </row>
     <row r="97" spans="1:15">
       <c r="A97" s="144" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B97" s="130"/>
       <c r="C97" s="130"/>
@@ -22476,13 +22520,13 @@
     </row>
     <row r="98" spans="1:15" ht="15">
       <c r="A98" s="121" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B98" s="122">
         <v>450</v>
       </c>
       <c r="C98" s="128" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D98" s="122"/>
       <c r="E98" s="122"/>
@@ -22499,13 +22543,13 @@
     </row>
     <row r="99" spans="1:15">
       <c r="A99" s="41" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B99" s="42">
         <v>150</v>
       </c>
       <c r="C99" s="146" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D99" s="42"/>
       <c r="E99" s="42"/>
@@ -22522,7 +22566,7 @@
     </row>
     <row r="100" spans="1:15">
       <c r="A100" s="41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B100" s="42">
         <f xml:space="preserve"> 0.87*B10*B98*I80/B99</f>
@@ -22544,7 +22588,7 @@
     </row>
     <row r="101" spans="1:15">
       <c r="A101" s="41" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B101" s="42">
         <f>0.79*C83*F80*I80</f>
@@ -22558,7 +22602,7 @@
       <c r="H101" s="42"/>
       <c r="I101" s="42"/>
       <c r="J101" s="42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K101" s="42"/>
       <c r="L101" s="49"/>
@@ -22585,7 +22629,7 @@
     </row>
     <row r="103" spans="1:15">
       <c r="A103" s="41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B103" s="42">
         <f>B101+B100</f>
@@ -22745,7 +22789,7 @@
     </row>
     <row r="112" spans="1:15" ht="15.75" thickBot="1">
       <c r="A112" s="56" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B112" s="57"/>
       <c r="C112" s="57"/>
@@ -22766,7 +22810,7 @@
     </row>
     <row r="113" spans="1:15">
       <c r="A113" s="59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B113" s="60"/>
       <c r="C113" s="60">
@@ -22780,11 +22824,11 @@
       <c r="H113" s="60"/>
       <c r="I113" s="60"/>
       <c r="J113" s="60" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K113" s="153"/>
       <c r="L113" s="61" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M113" s="42"/>
       <c r="N113" s="42"/>
@@ -22792,7 +22836,7 @@
     </row>
     <row r="114" spans="1:15" ht="15">
       <c r="A114" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B114" s="29"/>
       <c r="C114" s="29">
@@ -22818,7 +22862,7 @@
     </row>
     <row r="115" spans="1:15" ht="15">
       <c r="A115" s="41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B115" s="42"/>
       <c r="C115" s="42"/>
@@ -22840,19 +22884,19 @@
     </row>
     <row r="116" spans="1:15" ht="15">
       <c r="A116" s="121" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B116" s="42">
         <v>400</v>
       </c>
       <c r="C116" s="42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D116" s="128">
         <v>146.13999999999999</v>
       </c>
       <c r="E116" s="105" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F116" s="29"/>
       <c r="G116" s="29"/>
@@ -22867,13 +22911,13 @@
     </row>
     <row r="117" spans="1:15" ht="15">
       <c r="A117" s="41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B117" s="42">
         <v>348</v>
       </c>
       <c r="C117" s="146" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D117" s="128"/>
       <c r="E117" s="42"/>
@@ -22890,13 +22934,13 @@
     </row>
     <row r="118" spans="1:15" ht="15">
       <c r="A118" s="41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B118" s="42">
         <v>1814</v>
       </c>
       <c r="C118" s="146" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D118" s="128"/>
       <c r="E118" s="42"/>
@@ -22913,13 +22957,13 @@
     </row>
     <row r="119" spans="1:15">
       <c r="A119" s="41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B119" s="122">
         <v>59.54</v>
       </c>
       <c r="C119" s="133" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D119" s="42"/>
       <c r="E119" s="42"/>
@@ -22936,13 +22980,13 @@
     </row>
     <row r="120" spans="1:15" ht="15">
       <c r="A120" s="41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B120" s="122">
         <v>250</v>
       </c>
       <c r="C120" s="133" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D120" s="128"/>
       <c r="E120" s="42"/>
@@ -22959,13 +23003,13 @@
     </row>
     <row r="121" spans="1:15" ht="15">
       <c r="A121" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B121" s="122">
         <v>200000</v>
       </c>
       <c r="C121" s="146" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D121" s="128"/>
       <c r="E121" s="42"/>
@@ -22982,13 +23026,13 @@
     </row>
     <row r="122" spans="1:15" ht="15">
       <c r="A122" s="41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B122" s="122">
         <v>224</v>
       </c>
       <c r="C122" s="146" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D122" s="128"/>
       <c r="E122" s="42"/>
@@ -23005,7 +23049,7 @@
     </row>
     <row r="123" spans="1:15" ht="15">
       <c r="A123" s="41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B123" s="122">
         <v>38</v>
@@ -23035,7 +23079,7 @@
       <c r="H124" s="42"/>
       <c r="I124" s="42"/>
       <c r="J124" s="29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K124" s="42"/>
       <c r="L124" s="49"/>
@@ -23045,7 +23089,7 @@
     </row>
     <row r="125" spans="1:15">
       <c r="A125" s="41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B125" s="42">
         <f>(1/B121)*(B116-D116)/(B117-D116) *(B122-B120*(B116-D116)/(3*B118))</f>
@@ -23059,7 +23103,7 @@
       <c r="H125" s="42"/>
       <c r="I125" s="42"/>
       <c r="J125" s="29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K125" s="42"/>
       <c r="L125" s="49"/>
@@ -23069,14 +23113,14 @@
     </row>
     <row r="126" spans="1:15">
       <c r="A126" s="41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B126" s="29">
         <f>3*B119*B125/(1+(2*(B119-B123)/(B116-D116)))</f>
         <v>0.20389061756027049</v>
       </c>
       <c r="C126" s="146" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D126" s="29"/>
       <c r="E126" s="29"/>
@@ -23090,7 +23134,7 @@
     </row>
     <row r="127" spans="1:15">
       <c r="A127" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B127" s="29"/>
       <c r="C127" s="29">
@@ -23098,7 +23142,7 @@
         <v>0.20389061756027049</v>
       </c>
       <c r="D127" s="105" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E127" s="29"/>
       <c r="F127" s="29"/>
@@ -23138,8 +23182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA131"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -23157,14 +23201,14 @@
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
       <c r="E1" s="27"/>
-      <c r="F1" s="167" t="s">
+      <c r="F1" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="170"/>
+      <c r="K1" s="170"/>
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
       <c r="N1" s="27"/>
@@ -23175,12 +23219,12 @@
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
       <c r="L2" s="27"/>
       <c r="M2" s="27"/>
       <c r="N2" s="27"/>
@@ -23191,12 +23235,12 @@
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="170"/>
       <c r="L3" s="27"/>
       <c r="M3" s="27"/>
       <c r="N3" s="27"/>
@@ -23207,12 +23251,12 @@
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="167"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="170"/>
+      <c r="K4" s="170"/>
       <c r="L4" s="27"/>
       <c r="M4" s="27"/>
       <c r="N4" s="27"/>
@@ -23227,7 +23271,7 @@
         <v>33</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
@@ -23242,25 +23286,25 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="136" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B7" s="137">
         <v>4160</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D7" s="137" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E7" s="137">
         <v>60</v>
       </c>
       <c r="F7" s="138" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G7" s="139" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H7" s="137">
         <v>2640000</v>
@@ -23269,32 +23313,32 @@
         <v>114</v>
       </c>
       <c r="J7" s="37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K7" s="137"/>
       <c r="L7" s="65"/>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="155" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B8" s="37">
         <v>250</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="37"/>
       <c r="F8" s="52"/>
       <c r="G8" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H8" s="37">
         <v>6480000000</v>
       </c>
       <c r="I8" s="106" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J8" s="37"/>
       <c r="K8" s="37"/>
@@ -23308,22 +23352,22 @@
         <v>25</v>
       </c>
       <c r="C9" s="141" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="37"/>
       <c r="F9" s="52"/>
       <c r="G9" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H9" s="37">
         <v>90000000</v>
       </c>
       <c r="I9" s="106" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J9" s="156" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K9" s="37"/>
       <c r="L9" s="63"/>
@@ -23336,7 +23380,7 @@
         <v>415</v>
       </c>
       <c r="C10" s="141" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
@@ -23370,13 +23414,13 @@
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B12" s="37">
         <v>3500</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D12" s="37"/>
       <c r="E12" s="37"/>
@@ -23390,13 +23434,13 @@
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B13" s="37">
         <v>3500</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D13" s="37"/>
       <c r="E13" s="37"/>
@@ -23453,7 +23497,7 @@
     </row>
     <row r="16" spans="1:27" ht="15">
       <c r="A16" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B16" s="44"/>
       <c r="C16" s="46"/>
@@ -23486,7 +23530,7 @@
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="134" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B17" s="29">
         <f>H7</f>
@@ -23522,14 +23566,14 @@
     </row>
     <row r="18" spans="1:27" ht="15">
       <c r="A18" s="47" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B18" s="29">
         <f>H8</f>
         <v>6480000000</v>
       </c>
       <c r="C18" s="106" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D18" s="105"/>
       <c r="E18" s="29"/>
@@ -23558,14 +23602,14 @@
     </row>
     <row r="19" spans="1:27" ht="15">
       <c r="A19" s="47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B19" s="29">
         <f>H9</f>
         <v>90000000</v>
       </c>
       <c r="C19" s="106" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D19" s="105"/>
       <c r="E19" s="29"/>
@@ -23652,11 +23696,11 @@
     </row>
     <row r="22" spans="1:27" ht="15">
       <c r="A22" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B22" s="29"/>
       <c r="C22" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
@@ -23685,14 +23729,14 @@
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B23" s="29">
         <f>1*B12</f>
         <v>3500</v>
       </c>
       <c r="C23" s="127" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D23" s="105"/>
       <c r="E23" s="29"/>
@@ -23721,14 +23765,14 @@
     </row>
     <row r="24" spans="1:27" ht="15">
       <c r="A24" s="47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B24" s="35">
         <f>1*B13</f>
         <v>3500</v>
       </c>
       <c r="C24" s="127" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D24" s="131"/>
       <c r="E24" s="35"/>
@@ -23786,14 +23830,14 @@
     </row>
     <row r="26" spans="1:27">
       <c r="A26" s="47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B26" s="35">
         <f>H8/H7</f>
         <v>2454.5454545454545</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D26" s="35"/>
       <c r="E26" s="35"/>
@@ -23802,7 +23846,7 @@
       <c r="H26" s="35"/>
       <c r="I26" s="35"/>
       <c r="J26" s="127" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K26" s="35"/>
       <c r="L26" s="48"/>
@@ -23824,14 +23868,14 @@
     </row>
     <row r="27" spans="1:27">
       <c r="A27" s="47" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B27" s="35">
         <f>H9/H7</f>
         <v>34.090909090909093</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D27" s="35"/>
       <c r="E27" s="35"/>
@@ -23889,14 +23933,14 @@
     </row>
     <row r="29" spans="1:27">
       <c r="A29" s="47" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B29" s="35">
         <f>B12/500 +B8/30</f>
         <v>15.333333333333334</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D29" s="35"/>
       <c r="E29" s="35"/>
@@ -23925,14 +23969,14 @@
     </row>
     <row r="30" spans="1:27">
       <c r="A30" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B30" s="35">
         <f>B13/500 +B7/30</f>
         <v>145.66666666666666</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D30" s="35"/>
       <c r="E30" s="35"/>
@@ -23989,7 +24033,7 @@
     </row>
     <row r="32" spans="1:27">
       <c r="A32" s="121" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B32" s="122">
         <f>B23/B8</f>
@@ -24025,7 +24069,7 @@
     </row>
     <row r="33" spans="1:27">
       <c r="A33" s="121" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B33" s="35">
         <f>B13/B7</f>
@@ -24087,7 +24131,7 @@
     </row>
     <row r="35" spans="1:27">
       <c r="A35" s="159" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B35" s="157"/>
       <c r="C35" s="157"/>
@@ -24147,14 +24191,14 @@
     </row>
     <row r="37" spans="1:27">
       <c r="A37" s="121" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B37" s="122">
         <f>B8*B7*B7*B7/12</f>
         <v>1499818666666.6667</v>
       </c>
       <c r="C37" s="122" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D37" s="122"/>
       <c r="E37" s="122"/>
@@ -24183,14 +24227,14 @@
     </row>
     <row r="38" spans="1:27">
       <c r="A38" s="121" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B38" s="122">
         <f>B7*B8</f>
         <v>1040000</v>
       </c>
       <c r="C38" s="122" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D38" s="122"/>
       <c r="E38" s="122"/>
@@ -24219,14 +24263,14 @@
     </row>
     <row r="39" spans="1:27">
       <c r="A39" s="47" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B39" s="35">
         <f>B7/2</f>
         <v>2080</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D39" s="35"/>
       <c r="E39" s="35"/>
@@ -24255,14 +24299,14 @@
     </row>
     <row r="40" spans="1:27">
       <c r="A40" s="47" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B40" s="35">
         <f>(H7/B38) +(H8*B39/B37)</f>
         <v>11.525147928994082</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D40" s="29"/>
       <c r="E40" s="35">
@@ -24270,7 +24314,7 @@
         <v>-6.4482248520710055</v>
       </c>
       <c r="F40" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G40" s="35"/>
       <c r="H40" s="35"/>
@@ -24325,14 +24369,14 @@
     </row>
     <row r="42" spans="1:27">
       <c r="A42" s="160" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B42" s="35">
         <f>0.2*B9</f>
         <v>5</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D42" s="35"/>
       <c r="E42" s="35"/>
@@ -24361,7 +24405,7 @@
     </row>
     <row r="43" spans="1:27">
       <c r="A43" s="121" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B43" s="122"/>
       <c r="C43" s="35"/>
@@ -24450,7 +24494,7 @@
     </row>
     <row r="46" spans="1:27">
       <c r="A46" s="159" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B46" s="157"/>
       <c r="C46" s="157"/>
@@ -24481,7 +24525,7 @@
     </row>
     <row r="47" spans="1:27">
       <c r="A47" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B47" s="35">
         <f>B12/B7</f>
@@ -24495,7 +24539,7 @@
       <c r="H47" s="35"/>
       <c r="I47" s="35"/>
       <c r="J47" s="127" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K47" s="35"/>
       <c r="L47" s="48"/>
@@ -24546,17 +24590,17 @@
     </row>
     <row r="49" spans="1:27" ht="15">
       <c r="A49" s="47" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B49" s="35">
         <f>0.0025*B8*1000</f>
         <v>625</v>
       </c>
       <c r="C49" s="122" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E49" s="152"/>
       <c r="F49" s="35"/>
@@ -24584,17 +24628,17 @@
     </row>
     <row r="50" spans="1:27">
       <c r="A50" s="47" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B50" s="35">
         <f>(0.0025+0.5*(1-1000/B8)*(0.0025-0.0025))*1000*B8</f>
         <v>625</v>
       </c>
       <c r="C50" s="122" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E50" s="35"/>
       <c r="F50" s="35"/>
@@ -24651,7 +24695,7 @@
     </row>
     <row r="52" spans="1:27">
       <c r="A52" s="159" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B52" s="157"/>
       <c r="C52" s="157"/>
@@ -24711,14 +24755,14 @@
     </row>
     <row r="54" spans="1:27">
       <c r="A54" s="47" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B54" s="35">
         <f>H10/(B7*B8)</f>
         <v>0.81346153846153846</v>
       </c>
       <c r="C54" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D54" s="35"/>
       <c r="E54" s="35"/>
@@ -24747,13 +24791,13 @@
     </row>
     <row r="55" spans="1:27">
       <c r="A55" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B55" s="35">
         <v>0.36</v>
       </c>
       <c r="C55" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D55" s="35"/>
       <c r="E55" s="35"/>
@@ -24762,7 +24806,7 @@
       <c r="H55" s="35"/>
       <c r="I55" s="35"/>
       <c r="J55" s="42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K55" s="35"/>
       <c r="L55" s="48"/>
@@ -24784,14 +24828,14 @@
     </row>
     <row r="56" spans="1:27">
       <c r="A56" s="47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B56" s="35">
         <f>(B54-B55)*B7*B8</f>
         <v>471600</v>
       </c>
       <c r="C56" s="35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D56" s="35"/>
       <c r="E56" s="35"/>
@@ -24826,7 +24870,7 @@
         <v>3.1</v>
       </c>
       <c r="C57" s="141" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D57" s="29"/>
       <c r="E57" s="42"/>
@@ -24835,7 +24879,7 @@
       <c r="H57" s="42"/>
       <c r="I57" s="42"/>
       <c r="J57" s="42" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K57" s="42"/>
       <c r="L57" s="49"/>
@@ -24857,7 +24901,7 @@
     </row>
     <row r="58" spans="1:27">
       <c r="A58" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B58" s="35"/>
       <c r="C58" s="35"/>
@@ -24888,7 +24932,7 @@
     </row>
     <row r="59" spans="1:27">
       <c r="A59" s="47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B59" s="35">
         <f>B56/(0.87*B10*B7)</f>
@@ -24951,7 +24995,7 @@
     </row>
     <row r="61" spans="1:27">
       <c r="A61" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B61" s="35"/>
       <c r="C61" s="162">
@@ -25014,7 +25058,7 @@
     </row>
     <row r="63" spans="1:27">
       <c r="A63" s="159" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B63" s="157"/>
       <c r="C63" s="157"/>
@@ -25025,7 +25069,7 @@
       <c r="H63" s="157"/>
       <c r="I63" s="157"/>
       <c r="J63" s="161" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K63" s="157"/>
       <c r="L63" s="158"/>
@@ -25047,7 +25091,7 @@
     </row>
     <row r="64" spans="1:27">
       <c r="A64" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B64" s="35">
         <v>1107000</v>
@@ -25056,14 +25100,14 @@
         <v>114</v>
       </c>
       <c r="D64" s="35" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E64" s="35">
         <v>20</v>
       </c>
       <c r="F64" s="35"/>
       <c r="G64" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H64" s="35">
         <f>B8</f>
@@ -25094,7 +25138,7 @@
       <c r="B65" s="35"/>
       <c r="C65" s="162"/>
       <c r="D65" s="35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E65" s="35">
         <f>B10</f>
@@ -25102,7 +25146,7 @@
       </c>
       <c r="F65" s="35"/>
       <c r="G65" s="35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H65" s="35">
         <v>3400</v>
@@ -25158,7 +25202,7 @@
     </row>
     <row r="67" spans="1:27">
       <c r="A67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B67" s="35">
         <f>B64/(E64*H64*H65)</f>
@@ -25224,7 +25268,7 @@
     </row>
     <row r="69" spans="1:27">
       <c r="A69" s="28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B69" s="35">
         <f>0.516</f>
@@ -25258,7 +25302,7 @@
     </row>
     <row r="70" spans="1:27">
       <c r="A70" s="28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B70" s="35">
         <f>(B67+B68)/(0.36+2*B68)</f>
@@ -25300,7 +25344,7 @@
       <c r="G71" s="35"/>
       <c r="H71" s="35"/>
       <c r="J71" s="35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K71" s="35"/>
       <c r="L71" s="48"/>
@@ -25322,7 +25366,7 @@
     </row>
     <row r="72" spans="1:27">
       <c r="A72" s="28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B72" s="35"/>
       <c r="C72" s="162">
@@ -25385,14 +25429,14 @@
     </row>
     <row r="74" spans="1:27">
       <c r="A74" s="47" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B74" s="35">
         <f>C72*E64*H64*H65*H65</f>
         <v>2530863415.3483381</v>
       </c>
       <c r="C74" s="35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D74" s="35"/>
       <c r="E74" s="35"/>
@@ -25588,7 +25632,7 @@
         <v>4160</v>
       </c>
       <c r="G80" s="60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H80" s="60" t="s">
         <v>43</v>
@@ -25598,7 +25642,7 @@
         <v>250</v>
       </c>
       <c r="J80" s="60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K80" s="60"/>
       <c r="L80" s="61"/>
@@ -25616,7 +25660,7 @@
         <v>0.81346153846153846</v>
       </c>
       <c r="D81" s="128" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E81" s="42" t="s">
         <v>30</v>
@@ -25628,7 +25672,7 @@
       <c r="H81" s="42"/>
       <c r="I81" s="42"/>
       <c r="J81" s="42" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K81" s="42"/>
       <c r="L81" s="49"/>
@@ -25638,7 +25682,7 @@
     </row>
     <row r="82" spans="1:15" ht="15">
       <c r="A82" s="41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B82" s="42"/>
       <c r="C82" s="42">
@@ -25646,7 +25690,7 @@
         <v>3217</v>
       </c>
       <c r="D82" s="128" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E82" s="29"/>
       <c r="F82" s="29"/>
@@ -25662,7 +25706,7 @@
     </row>
     <row r="83" spans="1:15" ht="15">
       <c r="A83" s="41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B83" s="42" t="s">
         <v>30</v>
@@ -25694,7 +25738,7 @@
         <v>1.0306461538461538</v>
       </c>
       <c r="D84" s="128" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E84" s="42"/>
       <c r="F84" s="42"/>
@@ -25702,7 +25746,7 @@
       <c r="H84" s="42"/>
       <c r="I84" s="42"/>
       <c r="J84" s="42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K84" s="42"/>
       <c r="L84" s="49"/>
@@ -25719,7 +25763,7 @@
         <v>3.1</v>
       </c>
       <c r="D85" s="128" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E85" s="42"/>
       <c r="F85" s="42"/>
@@ -25727,7 +25771,7 @@
       <c r="H85" s="42"/>
       <c r="I85" s="42"/>
       <c r="J85" s="42" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K85" s="42"/>
       <c r="L85" s="49"/>
@@ -25765,7 +25809,7 @@
         <v>2.5023902506578026</v>
       </c>
       <c r="D87" s="128" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E87" s="42"/>
       <c r="F87" s="42"/>
@@ -25893,7 +25937,7 @@
         <v>4.6087799473757096</v>
       </c>
       <c r="D94" s="128" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E94" s="29"/>
       <c r="F94" s="29"/>
@@ -25943,7 +25987,7 @@
     </row>
     <row r="97" spans="1:15">
       <c r="A97" s="144" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B97" s="130"/>
       <c r="C97" s="130"/>
@@ -25962,13 +26006,13 @@
     </row>
     <row r="98" spans="1:15" ht="15">
       <c r="A98" s="121" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B98" s="122">
         <v>450</v>
       </c>
       <c r="C98" s="128" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D98" s="122"/>
       <c r="E98" s="122"/>
@@ -25985,13 +26029,13 @@
     </row>
     <row r="99" spans="1:15">
       <c r="A99" s="41" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B99" s="42">
         <v>150</v>
       </c>
       <c r="C99" s="146" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D99" s="42"/>
       <c r="E99" s="42"/>
@@ -26008,7 +26052,7 @@
     </row>
     <row r="100" spans="1:15">
       <c r="A100" s="41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B100" s="42">
         <f xml:space="preserve"> 0.87*B10*B98*I80/B99</f>
@@ -26030,7 +26074,7 @@
     </row>
     <row r="101" spans="1:15">
       <c r="A101" s="41" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B101" s="42">
         <f>0.79*C83*F80*I80</f>
@@ -26044,7 +26088,7 @@
       <c r="H101" s="42"/>
       <c r="I101" s="42"/>
       <c r="J101" s="42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K101" s="42"/>
       <c r="L101" s="49"/>
@@ -26071,7 +26115,7 @@
     </row>
     <row r="103" spans="1:15">
       <c r="A103" s="41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B103" s="42">
         <f>B101+B100</f>
@@ -26577,14 +26621,14 @@
       <c r="C1" s="50"/>
       <c r="D1" s="50"/>
       <c r="E1" s="50"/>
-      <c r="F1" s="175" t="s">
+      <c r="F1" s="178" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
-      <c r="I1" s="175"/>
-      <c r="J1" s="175"/>
-      <c r="K1" s="175"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
       <c r="L1" s="50"/>
       <c r="M1" s="50"/>
       <c r="N1" s="50"/>
@@ -26598,12 +26642,12 @@
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
       <c r="E2" s="50"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="178"/>
       <c r="L2" s="50"/>
       <c r="M2" s="50"/>
       <c r="N2" s="50"/>
@@ -26617,12 +26661,12 @@
       <c r="C3" s="50"/>
       <c r="D3" s="50"/>
       <c r="E3" s="50"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="178"/>
+      <c r="I3" s="178"/>
+      <c r="J3" s="178"/>
+      <c r="K3" s="178"/>
       <c r="L3" s="50"/>
       <c r="M3" s="50"/>
       <c r="N3" s="50"/>
@@ -26636,12 +26680,12 @@
       <c r="C4" s="50"/>
       <c r="D4" s="50"/>
       <c r="E4" s="50"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
-      <c r="H4" s="175"/>
-      <c r="I4" s="175"/>
-      <c r="J4" s="175"/>
-      <c r="K4" s="175"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="178"/>
+      <c r="H4" s="178"/>
+      <c r="I4" s="178"/>
+      <c r="J4" s="178"/>
+      <c r="K4" s="178"/>
       <c r="L4" s="50"/>
       <c r="M4" s="50"/>
       <c r="N4" s="50"/>
@@ -26745,7 +26789,7 @@
         <v>107</v>
       </c>
       <c r="S283" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="306" spans="14:14">
@@ -26799,14 +26843,14 @@
       <c r="C1" s="50"/>
       <c r="D1" s="50"/>
       <c r="E1" s="50"/>
-      <c r="F1" s="175" t="s">
+      <c r="F1" s="178" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
-      <c r="I1" s="175"/>
-      <c r="J1" s="175"/>
-      <c r="K1" s="175"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
       <c r="L1" s="50"/>
       <c r="M1" s="50"/>
       <c r="N1" s="50"/>
@@ -26820,12 +26864,12 @@
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
       <c r="E2" s="50"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="178"/>
       <c r="L2" s="50"/>
       <c r="M2" s="50"/>
       <c r="N2" s="50"/>
@@ -26839,12 +26883,12 @@
       <c r="C3" s="50"/>
       <c r="D3" s="50"/>
       <c r="E3" s="50"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="178"/>
+      <c r="I3" s="178"/>
+      <c r="J3" s="178"/>
+      <c r="K3" s="178"/>
       <c r="L3" s="50"/>
       <c r="M3" s="50"/>
       <c r="N3" s="50"/>
@@ -26858,12 +26902,12 @@
       <c r="C4" s="50"/>
       <c r="D4" s="50"/>
       <c r="E4" s="50"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
-      <c r="H4" s="175"/>
-      <c r="I4" s="175"/>
-      <c r="J4" s="175"/>
-      <c r="K4" s="175"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="178"/>
+      <c r="H4" s="178"/>
+      <c r="I4" s="178"/>
+      <c r="J4" s="178"/>
+      <c r="K4" s="178"/>
       <c r="L4" s="50"/>
       <c r="M4" s="50"/>
       <c r="N4" s="50"/>
@@ -26892,8 +26936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT492"/>
   <sheetViews>
-    <sheetView topLeftCell="A345" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H399" sqref="H399"/>
+    <sheetView topLeftCell="A7" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="L252" sqref="L252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -26904,14 +26948,14 @@
       <c r="C1" s="50"/>
       <c r="D1" s="50"/>
       <c r="E1" s="50"/>
-      <c r="F1" s="175" t="s">
+      <c r="F1" s="178" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
-      <c r="I1" s="175"/>
-      <c r="J1" s="175"/>
-      <c r="K1" s="175"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
       <c r="L1" s="50"/>
       <c r="M1" s="50"/>
       <c r="N1" s="50"/>
@@ -26951,12 +26995,12 @@
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
       <c r="E2" s="50"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="178"/>
       <c r="L2" s="50"/>
       <c r="M2" s="50"/>
       <c r="N2" s="50"/>
@@ -26996,12 +27040,12 @@
       <c r="C3" s="50"/>
       <c r="D3" s="50"/>
       <c r="E3" s="50"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="178"/>
+      <c r="I3" s="178"/>
+      <c r="J3" s="178"/>
+      <c r="K3" s="178"/>
       <c r="L3" s="50"/>
       <c r="M3" s="50"/>
       <c r="N3" s="50"/>
@@ -27041,12 +27085,12 @@
       <c r="C4" s="50"/>
       <c r="D4" s="50"/>
       <c r="E4" s="50"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
-      <c r="H4" s="175"/>
-      <c r="I4" s="175"/>
-      <c r="J4" s="175"/>
-      <c r="K4" s="175"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="178"/>
+      <c r="H4" s="178"/>
+      <c r="I4" s="178"/>
+      <c r="J4" s="178"/>
+      <c r="K4" s="178"/>
       <c r="L4" s="50"/>
       <c r="M4" s="50"/>
       <c r="N4" s="50"/>
@@ -50522,7 +50566,7 @@
   <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -50544,24 +50588,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="194" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="204"/>
-      <c r="F1" s="204"/>
-      <c r="G1" s="204"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="204"/>
-      <c r="J1" s="204"/>
-      <c r="K1" s="204"/>
-      <c r="L1" s="204"/>
-      <c r="M1" s="204"/>
-      <c r="N1" s="204"/>
-      <c r="O1" s="204"/>
-      <c r="P1" s="205"/>
+      <c r="B1" s="195"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="195"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
+      <c r="J1" s="195"/>
+      <c r="K1" s="195"/>
+      <c r="L1" s="195"/>
+      <c r="M1" s="195"/>
+      <c r="N1" s="195"/>
+      <c r="O1" s="195"/>
+      <c r="P1" s="196"/>
       <c r="Q1" s="92"/>
       <c r="R1" s="92"/>
       <c r="S1" s="92"/>
@@ -50571,22 +50615,22 @@
       <c r="W1" s="92"/>
     </row>
     <row r="2" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A2" s="206"/>
-      <c r="B2" s="207"/>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="207"/>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="207"/>
-      <c r="N2" s="207"/>
-      <c r="O2" s="207"/>
-      <c r="P2" s="208"/>
+      <c r="A2" s="197"/>
+      <c r="B2" s="198"/>
+      <c r="C2" s="198"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="198"/>
+      <c r="F2" s="198"/>
+      <c r="G2" s="198"/>
+      <c r="H2" s="198"/>
+      <c r="I2" s="198"/>
+      <c r="J2" s="198"/>
+      <c r="K2" s="198"/>
+      <c r="L2" s="198"/>
+      <c r="M2" s="198"/>
+      <c r="N2" s="198"/>
+      <c r="O2" s="198"/>
+      <c r="P2" s="199"/>
       <c r="Q2" s="92"/>
       <c r="R2" s="92"/>
       <c r="S2" s="92"/>
@@ -50596,22 +50640,22 @@
       <c r="W2" s="92"/>
     </row>
     <row r="3" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A3" s="206"/>
-      <c r="B3" s="207"/>
-      <c r="C3" s="207"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="207"/>
-      <c r="I3" s="207"/>
-      <c r="J3" s="207"/>
-      <c r="K3" s="207"/>
-      <c r="L3" s="207"/>
-      <c r="M3" s="207"/>
-      <c r="N3" s="207"/>
-      <c r="O3" s="207"/>
-      <c r="P3" s="208"/>
+      <c r="A3" s="197"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="198"/>
+      <c r="G3" s="198"/>
+      <c r="H3" s="198"/>
+      <c r="I3" s="198"/>
+      <c r="J3" s="198"/>
+      <c r="K3" s="198"/>
+      <c r="L3" s="198"/>
+      <c r="M3" s="198"/>
+      <c r="N3" s="198"/>
+      <c r="O3" s="198"/>
+      <c r="P3" s="199"/>
       <c r="Q3" s="92"/>
       <c r="R3" s="92"/>
       <c r="S3" s="92"/>
@@ -50621,22 +50665,22 @@
       <c r="W3" s="92"/>
     </row>
     <row r="4" spans="1:23" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A4" s="209"/>
-      <c r="B4" s="210"/>
-      <c r="C4" s="210"/>
-      <c r="D4" s="210"/>
-      <c r="E4" s="210"/>
-      <c r="F4" s="210"/>
-      <c r="G4" s="210"/>
-      <c r="H4" s="210"/>
-      <c r="I4" s="210"/>
-      <c r="J4" s="210"/>
-      <c r="K4" s="210"/>
-      <c r="L4" s="210"/>
-      <c r="M4" s="210"/>
-      <c r="N4" s="210"/>
-      <c r="O4" s="210"/>
-      <c r="P4" s="211"/>
+      <c r="A4" s="200"/>
+      <c r="B4" s="201"/>
+      <c r="C4" s="201"/>
+      <c r="D4" s="201"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="201"/>
+      <c r="G4" s="201"/>
+      <c r="H4" s="201"/>
+      <c r="I4" s="201"/>
+      <c r="J4" s="201"/>
+      <c r="K4" s="201"/>
+      <c r="L4" s="201"/>
+      <c r="M4" s="201"/>
+      <c r="N4" s="201"/>
+      <c r="O4" s="201"/>
+      <c r="P4" s="202"/>
       <c r="Q4" s="92"/>
       <c r="R4" s="92"/>
       <c r="S4" s="92"/>
@@ -50691,7 +50735,7 @@
     <row r="7" spans="1:23" ht="15.75">
       <c r="A7" s="79"/>
       <c r="B7" s="82" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C7" s="66"/>
       <c r="D7" s="81"/>
@@ -50752,275 +50796,275 @@
         <v>51</v>
       </c>
       <c r="D10" s="73" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" s="178" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" s="203" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="179"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="178" t="s">
+      <c r="F10" s="214"/>
+      <c r="G10" s="214"/>
+      <c r="H10" s="203" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="180"/>
-      <c r="J10" s="178" t="s">
+      <c r="I10" s="204"/>
+      <c r="J10" s="203" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="180"/>
-      <c r="L10" s="178" t="s">
+      <c r="K10" s="204"/>
+      <c r="L10" s="203" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="180"/>
-      <c r="N10" s="178" t="s">
+      <c r="M10" s="204"/>
+      <c r="N10" s="203" t="s">
         <v>53</v>
       </c>
-      <c r="O10" s="179"/>
-      <c r="P10" s="180"/>
+      <c r="O10" s="214"/>
+      <c r="P10" s="204"/>
     </row>
     <row r="11" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A11" s="188" t="s">
-        <v>125</v>
-      </c>
-      <c r="B11" s="197" t="s">
-        <v>245</v>
-      </c>
-      <c r="C11" s="191" t="s">
+      <c r="A11" s="205" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="212" t="s">
+        <v>244</v>
+      </c>
+      <c r="C11" s="185" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="199" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" s="186" t="s">
+      <c r="D11" s="183" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="181" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="187"/>
-      <c r="G11" s="187"/>
-      <c r="H11" s="176"/>
-      <c r="I11" s="177"/>
-      <c r="J11" s="176"/>
-      <c r="K11" s="177"/>
-      <c r="L11" s="176"/>
-      <c r="M11" s="177"/>
-      <c r="N11" s="181"/>
-      <c r="O11" s="182"/>
-      <c r="P11" s="183"/>
+      <c r="F11" s="182"/>
+      <c r="G11" s="182"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="180"/>
+      <c r="J11" s="179"/>
+      <c r="K11" s="180"/>
+      <c r="L11" s="179"/>
+      <c r="M11" s="180"/>
+      <c r="N11" s="191"/>
+      <c r="O11" s="192"/>
+      <c r="P11" s="193"/>
     </row>
     <row r="12" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A12" s="189"/>
-      <c r="B12" s="195"/>
-      <c r="C12" s="192"/>
-      <c r="D12" s="200"/>
-      <c r="E12" s="184" t="s">
+      <c r="A12" s="206"/>
+      <c r="B12" s="210"/>
+      <c r="C12" s="188"/>
+      <c r="D12" s="184"/>
+      <c r="E12" s="189" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="185"/>
-      <c r="G12" s="185"/>
-      <c r="H12" s="176"/>
-      <c r="I12" s="177"/>
-      <c r="J12" s="176"/>
-      <c r="K12" s="177"/>
-      <c r="L12" s="176"/>
-      <c r="M12" s="177"/>
-      <c r="N12" s="181"/>
-      <c r="O12" s="182"/>
-      <c r="P12" s="183"/>
+      <c r="F12" s="190"/>
+      <c r="G12" s="190"/>
+      <c r="H12" s="179"/>
+      <c r="I12" s="180"/>
+      <c r="J12" s="179"/>
+      <c r="K12" s="180"/>
+      <c r="L12" s="179"/>
+      <c r="M12" s="180"/>
+      <c r="N12" s="191"/>
+      <c r="O12" s="192"/>
+      <c r="P12" s="193"/>
     </row>
     <row r="13" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A13" s="189"/>
-      <c r="B13" s="195"/>
-      <c r="C13" s="193" t="s">
+      <c r="A13" s="206"/>
+      <c r="B13" s="210"/>
+      <c r="C13" s="208" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="199" t="s">
-        <v>118</v>
-      </c>
-      <c r="E13" s="186" t="s">
+      <c r="D13" s="183" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="181" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="187"/>
-      <c r="G13" s="187"/>
-      <c r="H13" s="176"/>
-      <c r="I13" s="177"/>
-      <c r="J13" s="176"/>
-      <c r="K13" s="177"/>
-      <c r="L13" s="176"/>
-      <c r="M13" s="177"/>
-      <c r="N13" s="181"/>
-      <c r="O13" s="182"/>
-      <c r="P13" s="183"/>
+      <c r="F13" s="182"/>
+      <c r="G13" s="182"/>
+      <c r="H13" s="179"/>
+      <c r="I13" s="180"/>
+      <c r="J13" s="179"/>
+      <c r="K13" s="180"/>
+      <c r="L13" s="179"/>
+      <c r="M13" s="180"/>
+      <c r="N13" s="191"/>
+      <c r="O13" s="192"/>
+      <c r="P13" s="193"/>
     </row>
     <row r="14" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A14" s="189"/>
-      <c r="B14" s="195"/>
-      <c r="C14" s="193"/>
-      <c r="D14" s="200"/>
-      <c r="E14" s="184" t="s">
+      <c r="A14" s="206"/>
+      <c r="B14" s="210"/>
+      <c r="C14" s="208"/>
+      <c r="D14" s="184"/>
+      <c r="E14" s="189" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="185"/>
-      <c r="G14" s="185"/>
-      <c r="H14" s="176"/>
-      <c r="I14" s="177"/>
-      <c r="J14" s="176"/>
-      <c r="K14" s="177"/>
-      <c r="L14" s="176"/>
-      <c r="M14" s="177"/>
-      <c r="N14" s="181"/>
-      <c r="O14" s="182"/>
-      <c r="P14" s="183"/>
+      <c r="F14" s="190"/>
+      <c r="G14" s="190"/>
+      <c r="H14" s="179"/>
+      <c r="I14" s="180"/>
+      <c r="J14" s="179"/>
+      <c r="K14" s="180"/>
+      <c r="L14" s="179"/>
+      <c r="M14" s="180"/>
+      <c r="N14" s="191"/>
+      <c r="O14" s="192"/>
+      <c r="P14" s="193"/>
     </row>
     <row r="15" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A15" s="189"/>
-      <c r="B15" s="195"/>
-      <c r="C15" s="191" t="s">
+      <c r="A15" s="206"/>
+      <c r="B15" s="210"/>
+      <c r="C15" s="185" t="s">
+        <v>254</v>
+      </c>
+      <c r="D15" s="183" t="s">
         <v>117</v>
       </c>
-      <c r="D15" s="199" t="s">
-        <v>118</v>
-      </c>
-      <c r="E15" s="186" t="s">
+      <c r="E15" s="181" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="187"/>
-      <c r="G15" s="191"/>
+      <c r="F15" s="182"/>
+      <c r="G15" s="185"/>
       <c r="H15" s="100"/>
       <c r="I15" s="101"/>
       <c r="J15" s="100"/>
       <c r="K15" s="101"/>
-      <c r="L15" s="176"/>
-      <c r="M15" s="177"/>
+      <c r="L15" s="179"/>
+      <c r="M15" s="180"/>
       <c r="N15" s="97"/>
       <c r="O15" s="98"/>
       <c r="P15" s="99"/>
     </row>
     <row r="16" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A16" s="189"/>
-      <c r="B16" s="198"/>
-      <c r="C16" s="192"/>
-      <c r="D16" s="200"/>
-      <c r="E16" s="201"/>
-      <c r="F16" s="202"/>
-      <c r="G16" s="192"/>
+      <c r="A16" s="206"/>
+      <c r="B16" s="213"/>
+      <c r="C16" s="188"/>
+      <c r="D16" s="184"/>
+      <c r="E16" s="186"/>
+      <c r="F16" s="187"/>
+      <c r="G16" s="188"/>
       <c r="H16" s="100"/>
       <c r="I16" s="101"/>
       <c r="J16" s="100"/>
       <c r="K16" s="101"/>
-      <c r="L16" s="176"/>
-      <c r="M16" s="177"/>
+      <c r="L16" s="179"/>
+      <c r="M16" s="180"/>
       <c r="N16" s="97"/>
       <c r="O16" s="98"/>
       <c r="P16" s="99"/>
     </row>
     <row r="17" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A17" s="189"/>
-      <c r="B17" s="194" t="s">
-        <v>246</v>
-      </c>
-      <c r="C17" s="191" t="s">
+      <c r="A17" s="206"/>
+      <c r="B17" s="209" t="s">
+        <v>245</v>
+      </c>
+      <c r="C17" s="185" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="199" t="s">
-        <v>118</v>
-      </c>
-      <c r="E17" s="186" t="s">
+      <c r="D17" s="183" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="181" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="187"/>
-      <c r="G17" s="187"/>
-      <c r="H17" s="176"/>
-      <c r="I17" s="177"/>
-      <c r="J17" s="176"/>
-      <c r="K17" s="177"/>
-      <c r="L17" s="176"/>
-      <c r="M17" s="177"/>
-      <c r="N17" s="181"/>
-      <c r="O17" s="182"/>
-      <c r="P17" s="183"/>
+      <c r="F17" s="182"/>
+      <c r="G17" s="182"/>
+      <c r="H17" s="179"/>
+      <c r="I17" s="180"/>
+      <c r="J17" s="179"/>
+      <c r="K17" s="180"/>
+      <c r="L17" s="179"/>
+      <c r="M17" s="180"/>
+      <c r="N17" s="191"/>
+      <c r="O17" s="192"/>
+      <c r="P17" s="193"/>
     </row>
     <row r="18" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A18" s="189"/>
-      <c r="B18" s="195"/>
-      <c r="C18" s="192"/>
-      <c r="D18" s="200"/>
-      <c r="E18" s="184" t="s">
+      <c r="A18" s="206"/>
+      <c r="B18" s="210"/>
+      <c r="C18" s="188"/>
+      <c r="D18" s="184"/>
+      <c r="E18" s="189" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="185"/>
-      <c r="G18" s="185"/>
-      <c r="H18" s="176"/>
-      <c r="I18" s="177"/>
-      <c r="J18" s="176"/>
-      <c r="K18" s="177"/>
-      <c r="L18" s="176"/>
-      <c r="M18" s="177"/>
-      <c r="N18" s="181"/>
-      <c r="O18" s="182"/>
-      <c r="P18" s="183"/>
+      <c r="F18" s="190"/>
+      <c r="G18" s="190"/>
+      <c r="H18" s="179"/>
+      <c r="I18" s="180"/>
+      <c r="J18" s="179"/>
+      <c r="K18" s="180"/>
+      <c r="L18" s="179"/>
+      <c r="M18" s="180"/>
+      <c r="N18" s="191"/>
+      <c r="O18" s="192"/>
+      <c r="P18" s="193"/>
     </row>
     <row r="19" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A19" s="189"/>
-      <c r="B19" s="195"/>
-      <c r="C19" s="193" t="s">
+      <c r="A19" s="206"/>
+      <c r="B19" s="210"/>
+      <c r="C19" s="208" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="199" t="s">
-        <v>118</v>
-      </c>
-      <c r="E19" s="186" t="s">
+      <c r="D19" s="183" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" s="181" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="187"/>
-      <c r="G19" s="187"/>
-      <c r="H19" s="176"/>
-      <c r="I19" s="177"/>
-      <c r="J19" s="176"/>
-      <c r="K19" s="177"/>
-      <c r="L19" s="176"/>
-      <c r="M19" s="177"/>
-      <c r="N19" s="181"/>
-      <c r="O19" s="182"/>
-      <c r="P19" s="183"/>
+      <c r="F19" s="182"/>
+      <c r="G19" s="182"/>
+      <c r="H19" s="179"/>
+      <c r="I19" s="180"/>
+      <c r="J19" s="179"/>
+      <c r="K19" s="180"/>
+      <c r="L19" s="179"/>
+      <c r="M19" s="180"/>
+      <c r="N19" s="191"/>
+      <c r="O19" s="192"/>
+      <c r="P19" s="193"/>
     </row>
     <row r="20" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A20" s="189"/>
-      <c r="B20" s="195"/>
-      <c r="C20" s="193"/>
-      <c r="D20" s="200"/>
-      <c r="E20" s="184" t="s">
+      <c r="A20" s="206"/>
+      <c r="B20" s="210"/>
+      <c r="C20" s="208"/>
+      <c r="D20" s="184"/>
+      <c r="E20" s="189" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="185"/>
-      <c r="G20" s="185"/>
-      <c r="H20" s="176"/>
-      <c r="I20" s="177"/>
-      <c r="J20" s="176"/>
-      <c r="K20" s="177"/>
-      <c r="L20" s="176"/>
-      <c r="M20" s="177"/>
-      <c r="N20" s="181"/>
-      <c r="O20" s="182"/>
-      <c r="P20" s="183"/>
+      <c r="F20" s="190"/>
+      <c r="G20" s="190"/>
+      <c r="H20" s="179"/>
+      <c r="I20" s="180"/>
+      <c r="J20" s="179"/>
+      <c r="K20" s="180"/>
+      <c r="L20" s="179"/>
+      <c r="M20" s="180"/>
+      <c r="N20" s="191"/>
+      <c r="O20" s="192"/>
+      <c r="P20" s="193"/>
     </row>
     <row r="21" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A21" s="189"/>
-      <c r="B21" s="195"/>
-      <c r="C21" s="191" t="s">
+      <c r="A21" s="206"/>
+      <c r="B21" s="210"/>
+      <c r="C21" s="185" t="s">
+        <v>255</v>
+      </c>
+      <c r="D21" s="183" t="s">
         <v>117</v>
       </c>
-      <c r="D21" s="199" t="s">
-        <v>118</v>
-      </c>
-      <c r="E21" s="186" t="s">
+      <c r="E21" s="181" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="187"/>
-      <c r="G21" s="191"/>
+      <c r="F21" s="182"/>
+      <c r="G21" s="185"/>
       <c r="H21" s="100"/>
       <c r="I21" s="101"/>
       <c r="J21" s="100"/>
       <c r="K21" s="101"/>
-      <c r="L21" s="176"/>
-      <c r="M21" s="177"/>
+      <c r="L21" s="179"/>
+      <c r="M21" s="180"/>
       <c r="N21" s="97"/>
       <c r="O21" s="98"/>
       <c r="P21" s="99"/>
@@ -51028,19 +51072,19 @@
       <c r="R21" s="68"/>
     </row>
     <row r="22" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A22" s="190"/>
-      <c r="B22" s="196"/>
-      <c r="C22" s="192"/>
-      <c r="D22" s="200"/>
-      <c r="E22" s="201"/>
-      <c r="F22" s="202"/>
-      <c r="G22" s="192"/>
+      <c r="A22" s="207"/>
+      <c r="B22" s="211"/>
+      <c r="C22" s="188"/>
+      <c r="D22" s="184"/>
+      <c r="E22" s="186"/>
+      <c r="F22" s="187"/>
+      <c r="G22" s="188"/>
       <c r="H22" s="100"/>
       <c r="I22" s="101"/>
       <c r="J22" s="100"/>
       <c r="K22" s="101"/>
-      <c r="L22" s="176"/>
-      <c r="M22" s="177"/>
+      <c r="L22" s="179"/>
+      <c r="M22" s="180"/>
       <c r="N22" s="97"/>
       <c r="O22" s="98"/>
       <c r="P22" s="99"/>
@@ -51069,14 +51113,41 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:G22"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="A11:A22"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C15:C16"/>
     <mergeCell ref="N18:P18"/>
     <mergeCell ref="N19:P19"/>
     <mergeCell ref="A1:P4"/>
@@ -51093,6 +51164,14 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="E19:G19"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:G22"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="J19:K19"/>
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="E18:G18"/>
@@ -51100,42 +51179,7 @@
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="E15:G16"/>
-    <mergeCell ref="A11:A22"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
     <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -51145,8 +51189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS31"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:C19"/>
+    <sheetView topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -51160,66 +51204,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
-      <c r="A1" s="215"/>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
-      <c r="D1" s="215"/>
-      <c r="E1" s="215" t="s">
+      <c r="A1" s="226"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
-      <c r="I1" s="215"/>
-      <c r="J1" s="215"/>
-      <c r="K1" s="215"/>
-      <c r="L1" s="215"/>
-      <c r="M1" s="215"/>
-      <c r="N1" s="215"/>
-      <c r="O1" s="215"/>
-      <c r="P1" s="215"/>
-      <c r="Q1" s="215"/>
-      <c r="R1" s="215"/>
-      <c r="S1" s="215"/>
-      <c r="T1" s="215"/>
-      <c r="U1" s="215"/>
-      <c r="V1" s="215"/>
-      <c r="W1" s="215"/>
-      <c r="X1" s="215"/>
-      <c r="Y1" s="215"/>
-      <c r="Z1" s="215"/>
-      <c r="AA1" s="215"/>
-      <c r="AB1" s="215"/>
-      <c r="AC1" s="215"/>
-      <c r="AD1" s="215"/>
-      <c r="AE1" s="215"/>
-      <c r="AF1" s="215"/>
-      <c r="AG1" s="215"/>
-      <c r="AH1" s="215"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="226"/>
+      <c r="I1" s="226"/>
+      <c r="J1" s="226"/>
+      <c r="K1" s="226"/>
+      <c r="L1" s="226"/>
+      <c r="M1" s="226"/>
+      <c r="N1" s="226"/>
+      <c r="O1" s="226"/>
+      <c r="P1" s="226"/>
+      <c r="Q1" s="226"/>
+      <c r="R1" s="226"/>
+      <c r="S1" s="226"/>
+      <c r="T1" s="226"/>
+      <c r="U1" s="226"/>
+      <c r="V1" s="226"/>
+      <c r="W1" s="226"/>
+      <c r="X1" s="226"/>
+      <c r="Y1" s="226"/>
+      <c r="Z1" s="226"/>
+      <c r="AA1" s="226"/>
+      <c r="AB1" s="226"/>
+      <c r="AC1" s="226"/>
+      <c r="AD1" s="226"/>
+      <c r="AE1" s="226"/>
+      <c r="AF1" s="226"/>
+      <c r="AG1" s="226"/>
+      <c r="AH1" s="226"/>
     </row>
     <row r="2" spans="1:35">
-      <c r="A2" s="215"/>
-      <c r="B2" s="215"/>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
+      <c r="A2" s="226"/>
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
-      <c r="I2" s="215" t="s">
+      <c r="I2" s="226" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="215"/>
-      <c r="K2" s="215"/>
-      <c r="L2" s="215"/>
-      <c r="M2" s="215"/>
-      <c r="N2" s="215"/>
-      <c r="O2" s="215"/>
-      <c r="P2" s="215"/>
-      <c r="Q2" s="215"/>
-      <c r="R2" s="215"/>
-      <c r="S2" s="215"/>
-      <c r="T2" s="215"/>
+      <c r="J2" s="226"/>
+      <c r="K2" s="226"/>
+      <c r="L2" s="226"/>
+      <c r="M2" s="226"/>
+      <c r="N2" s="226"/>
+      <c r="O2" s="226"/>
+      <c r="P2" s="226"/>
+      <c r="Q2" s="226"/>
+      <c r="R2" s="226"/>
+      <c r="S2" s="226"/>
+      <c r="T2" s="226"/>
       <c r="U2" s="23"/>
       <c r="V2" s="23"/>
       <c r="W2" s="23"/>
@@ -51236,10 +51280,10 @@
       <c r="AH2" s="23"/>
     </row>
     <row r="3" spans="1:35">
-      <c r="A3" s="215"/>
-      <c r="B3" s="215"/>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
+      <c r="A3" s="226"/>
+      <c r="B3" s="226"/>
+      <c r="C3" s="226"/>
+      <c r="D3" s="226"/>
       <c r="E3" s="13">
         <v>1</v>
       </c>
@@ -51332,14 +51376,14 @@
       </c>
     </row>
     <row r="4" spans="1:35">
-      <c r="A4" s="216" t="s">
+      <c r="A4" s="227" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="220" t="s">
+      <c r="B4" s="218" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="220"/>
-      <c r="D4" s="220"/>
+      <c r="C4" s="218"/>
+      <c r="D4" s="218"/>
       <c r="F4" s="16"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -51371,12 +51415,12 @@
       <c r="AH4" s="16"/>
     </row>
     <row r="5" spans="1:35">
-      <c r="A5" s="216"/>
-      <c r="B5" s="220" t="s">
+      <c r="A5" s="227"/>
+      <c r="B5" s="218" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="220"/>
-      <c r="D5" s="220"/>
+      <c r="C5" s="218"/>
+      <c r="D5" s="218"/>
       <c r="E5" s="16"/>
       <c r="F5" s="86"/>
       <c r="G5" s="86"/>
@@ -51409,12 +51453,12 @@
       <c r="AH5" s="16"/>
     </row>
     <row r="6" spans="1:35">
-      <c r="A6" s="216"/>
-      <c r="B6" s="220" t="s">
+      <c r="A6" s="227"/>
+      <c r="B6" s="218" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="220"/>
-      <c r="D6" s="220"/>
+      <c r="C6" s="218"/>
+      <c r="D6" s="218"/>
       <c r="E6" s="16"/>
       <c r="F6" s="86"/>
       <c r="G6" s="86"/>
@@ -51447,12 +51491,12 @@
       <c r="AH6" s="16"/>
     </row>
     <row r="7" spans="1:35">
-      <c r="A7" s="216"/>
-      <c r="B7" s="220" t="s">
+      <c r="A7" s="227"/>
+      <c r="B7" s="218" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="220"/>
-      <c r="D7" s="220"/>
+      <c r="C7" s="218"/>
+      <c r="D7" s="218"/>
       <c r="E7" s="16"/>
       <c r="F7" s="86"/>
       <c r="G7" s="86"/>
@@ -51522,66 +51566,66 @@
       <c r="AI8" s="18"/>
     </row>
     <row r="9" spans="1:35">
-      <c r="A9" s="215"/>
-      <c r="B9" s="215"/>
-      <c r="C9" s="215"/>
-      <c r="D9" s="215"/>
-      <c r="E9" s="215" t="s">
+      <c r="A9" s="226"/>
+      <c r="B9" s="226"/>
+      <c r="C9" s="226"/>
+      <c r="D9" s="226"/>
+      <c r="E9" s="226" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="215"/>
-      <c r="G9" s="215"/>
-      <c r="H9" s="215"/>
-      <c r="I9" s="215"/>
-      <c r="J9" s="215"/>
-      <c r="K9" s="215"/>
-      <c r="L9" s="215"/>
-      <c r="M9" s="215"/>
-      <c r="N9" s="215"/>
-      <c r="O9" s="215"/>
-      <c r="P9" s="215"/>
-      <c r="Q9" s="215"/>
-      <c r="R9" s="215"/>
-      <c r="S9" s="215"/>
-      <c r="T9" s="215"/>
-      <c r="U9" s="215"/>
-      <c r="V9" s="215"/>
-      <c r="W9" s="215"/>
-      <c r="X9" s="215"/>
-      <c r="Y9" s="215"/>
-      <c r="Z9" s="215"/>
-      <c r="AA9" s="215"/>
-      <c r="AB9" s="215"/>
-      <c r="AC9" s="215"/>
-      <c r="AD9" s="215"/>
-      <c r="AE9" s="215"/>
-      <c r="AF9" s="215"/>
-      <c r="AG9" s="215"/>
-      <c r="AH9" s="215"/>
+      <c r="F9" s="226"/>
+      <c r="G9" s="226"/>
+      <c r="H9" s="226"/>
+      <c r="I9" s="226"/>
+      <c r="J9" s="226"/>
+      <c r="K9" s="226"/>
+      <c r="L9" s="226"/>
+      <c r="M9" s="226"/>
+      <c r="N9" s="226"/>
+      <c r="O9" s="226"/>
+      <c r="P9" s="226"/>
+      <c r="Q9" s="226"/>
+      <c r="R9" s="226"/>
+      <c r="S9" s="226"/>
+      <c r="T9" s="226"/>
+      <c r="U9" s="226"/>
+      <c r="V9" s="226"/>
+      <c r="W9" s="226"/>
+      <c r="X9" s="226"/>
+      <c r="Y9" s="226"/>
+      <c r="Z9" s="226"/>
+      <c r="AA9" s="226"/>
+      <c r="AB9" s="226"/>
+      <c r="AC9" s="226"/>
+      <c r="AD9" s="226"/>
+      <c r="AE9" s="226"/>
+      <c r="AF9" s="226"/>
+      <c r="AG9" s="226"/>
+      <c r="AH9" s="226"/>
     </row>
     <row r="10" spans="1:35">
-      <c r="A10" s="215"/>
-      <c r="B10" s="215"/>
-      <c r="C10" s="215"/>
-      <c r="D10" s="215"/>
+      <c r="A10" s="226"/>
+      <c r="B10" s="226"/>
+      <c r="C10" s="226"/>
+      <c r="D10" s="226"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
-      <c r="I10" s="215" t="s">
+      <c r="I10" s="226" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="215"/>
-      <c r="K10" s="215"/>
-      <c r="L10" s="215"/>
-      <c r="M10" s="215"/>
-      <c r="N10" s="215"/>
-      <c r="O10" s="215"/>
-      <c r="P10" s="215"/>
-      <c r="Q10" s="215"/>
-      <c r="R10" s="215"/>
-      <c r="S10" s="215"/>
-      <c r="T10" s="215"/>
+      <c r="J10" s="226"/>
+      <c r="K10" s="226"/>
+      <c r="L10" s="226"/>
+      <c r="M10" s="226"/>
+      <c r="N10" s="226"/>
+      <c r="O10" s="226"/>
+      <c r="P10" s="226"/>
+      <c r="Q10" s="226"/>
+      <c r="R10" s="226"/>
+      <c r="S10" s="226"/>
+      <c r="T10" s="226"/>
       <c r="U10" s="23"/>
       <c r="V10" s="23"/>
       <c r="W10" s="23"/>
@@ -51598,10 +51642,10 @@
       <c r="AH10" s="23"/>
     </row>
     <row r="11" spans="1:35">
-      <c r="A11" s="215"/>
-      <c r="B11" s="215"/>
-      <c r="C11" s="215"/>
-      <c r="D11" s="215"/>
+      <c r="A11" s="226"/>
+      <c r="B11" s="226"/>
+      <c r="C11" s="226"/>
+      <c r="D11" s="226"/>
       <c r="E11" s="13">
         <v>1</v>
       </c>
@@ -51698,10 +51742,10 @@
       <c r="B12" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="223" t="s">
+      <c r="C12" s="224" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="224"/>
+      <c r="D12" s="225"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
       <c r="G12" s="14"/>
@@ -51734,10 +51778,10 @@
       <c r="AH12" s="13"/>
     </row>
     <row r="13" spans="1:35">
-      <c r="A13" s="218"/>
-      <c r="B13" s="213"/>
-      <c r="C13" s="212" t="s">
-        <v>251</v>
+      <c r="A13" s="216"/>
+      <c r="B13" s="223"/>
+      <c r="C13" s="221" t="s">
+        <v>250</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>62</v>
@@ -51774,9 +51818,9 @@
       <c r="AH13" s="13"/>
     </row>
     <row r="14" spans="1:35">
-      <c r="A14" s="218"/>
-      <c r="B14" s="213"/>
-      <c r="C14" s="213"/>
+      <c r="A14" s="216"/>
+      <c r="B14" s="223"/>
+      <c r="C14" s="223"/>
       <c r="D14" s="23" t="s">
         <v>63</v>
       </c>
@@ -51812,9 +51856,9 @@
       <c r="AH14" s="13"/>
     </row>
     <row r="15" spans="1:35">
-      <c r="A15" s="218"/>
-      <c r="B15" s="213"/>
-      <c r="C15" s="213"/>
+      <c r="A15" s="216"/>
+      <c r="B15" s="223"/>
+      <c r="C15" s="223"/>
       <c r="D15" s="23" t="s">
         <v>64</v>
       </c>
@@ -51850,9 +51894,9 @@
       <c r="AH15" s="13"/>
     </row>
     <row r="16" spans="1:35">
-      <c r="A16" s="218"/>
-      <c r="B16" s="213"/>
-      <c r="C16" s="213"/>
+      <c r="A16" s="216"/>
+      <c r="B16" s="223"/>
+      <c r="C16" s="223"/>
       <c r="D16" s="23" t="s">
         <v>65</v>
       </c>
@@ -51888,9 +51932,9 @@
       <c r="AH16" s="13"/>
     </row>
     <row r="17" spans="1:45">
-      <c r="A17" s="218"/>
+      <c r="A17" s="216"/>
       <c r="B17" s="102"/>
-      <c r="C17" s="214"/>
+      <c r="C17" s="222"/>
       <c r="D17" s="103" t="s">
         <v>116</v>
       </c>
@@ -51926,12 +51970,12 @@
       <c r="AH17" s="13"/>
     </row>
     <row r="18" spans="1:45">
-      <c r="A18" s="218"/>
-      <c r="B18" s="218" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" s="212" t="s">
-        <v>133</v>
+      <c r="A18" s="216"/>
+      <c r="B18" s="216" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="221" t="s">
+        <v>132</v>
       </c>
       <c r="D18" s="89" t="s">
         <v>109</v>
@@ -51968,9 +52012,9 @@
       <c r="AH18" s="13"/>
     </row>
     <row r="19" spans="1:45">
-      <c r="A19" s="218"/>
-      <c r="B19" s="218"/>
-      <c r="C19" s="214"/>
+      <c r="A19" s="216"/>
+      <c r="B19" s="216"/>
+      <c r="C19" s="222"/>
       <c r="D19" s="89" t="s">
         <v>110</v>
       </c>
@@ -52017,14 +52061,14 @@
       <c r="AS19" s="29"/>
     </row>
     <row r="20" spans="1:45">
-      <c r="A20" s="218"/>
-      <c r="B20" s="217" t="s">
+      <c r="A20" s="216"/>
+      <c r="B20" s="215" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="221" t="s">
+      <c r="C20" s="219" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="222"/>
+      <c r="D20" s="220"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
@@ -52068,12 +52112,12 @@
       <c r="AS20" s="29"/>
     </row>
     <row r="21" spans="1:45">
-      <c r="A21" s="218"/>
-      <c r="B21" s="217"/>
-      <c r="C21" s="221" t="s">
+      <c r="A21" s="216"/>
+      <c r="B21" s="215"/>
+      <c r="C21" s="219" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="222"/>
+      <c r="D21" s="220"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
@@ -52117,11 +52161,11 @@
       <c r="AS21" s="29"/>
     </row>
     <row r="22" spans="1:45">
-      <c r="A22" s="218"/>
-      <c r="B22" s="217" t="s">
+      <c r="A22" s="216"/>
+      <c r="B22" s="215" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="217" t="s">
+      <c r="C22" s="215" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="87" t="s">
@@ -52170,9 +52214,9 @@
       <c r="AS22" s="29"/>
     </row>
     <row r="23" spans="1:45">
-      <c r="A23" s="218"/>
-      <c r="B23" s="217"/>
-      <c r="C23" s="217"/>
+      <c r="A23" s="216"/>
+      <c r="B23" s="215"/>
+      <c r="C23" s="215"/>
       <c r="D23" s="87" t="s">
         <v>18</v>
       </c>
@@ -52219,9 +52263,9 @@
       <c r="AS23" s="29"/>
     </row>
     <row r="24" spans="1:45">
-      <c r="A24" s="218"/>
-      <c r="B24" s="217"/>
-      <c r="C24" s="217"/>
+      <c r="A24" s="216"/>
+      <c r="B24" s="215"/>
+      <c r="C24" s="215"/>
       <c r="D24" s="87" t="s">
         <v>19</v>
       </c>
@@ -52268,9 +52312,9 @@
       <c r="AS24" s="29"/>
     </row>
     <row r="25" spans="1:45">
-      <c r="A25" s="218"/>
-      <c r="B25" s="217"/>
-      <c r="C25" s="217"/>
+      <c r="A25" s="216"/>
+      <c r="B25" s="215"/>
+      <c r="C25" s="215"/>
       <c r="D25" s="87" t="s">
         <v>20</v>
       </c>
@@ -52317,9 +52361,9 @@
       <c r="AS25" s="29"/>
     </row>
     <row r="26" spans="1:45">
-      <c r="A26" s="218"/>
-      <c r="B26" s="217"/>
-      <c r="C26" s="217" t="s">
+      <c r="A26" s="216"/>
+      <c r="B26" s="215"/>
+      <c r="C26" s="215" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="87" t="s">
@@ -52368,9 +52412,9 @@
       <c r="AS26" s="29"/>
     </row>
     <row r="27" spans="1:45">
-      <c r="A27" s="218"/>
-      <c r="B27" s="217"/>
-      <c r="C27" s="217"/>
+      <c r="A27" s="216"/>
+      <c r="B27" s="215"/>
+      <c r="C27" s="215"/>
       <c r="D27" s="87" t="s">
         <v>18</v>
       </c>
@@ -52417,9 +52461,9 @@
       <c r="AS27" s="29"/>
     </row>
     <row r="28" spans="1:45">
-      <c r="A28" s="218"/>
-      <c r="B28" s="217"/>
-      <c r="C28" s="217"/>
+      <c r="A28" s="216"/>
+      <c r="B28" s="215"/>
+      <c r="C28" s="215"/>
       <c r="D28" s="87" t="s">
         <v>19</v>
       </c>
@@ -52466,9 +52510,9 @@
       <c r="AS28" s="29"/>
     </row>
     <row r="29" spans="1:45">
-      <c r="A29" s="218"/>
-      <c r="B29" s="217"/>
-      <c r="C29" s="217" t="s">
+      <c r="A29" s="216"/>
+      <c r="B29" s="215"/>
+      <c r="C29" s="215" t="s">
         <v>22</v>
       </c>
       <c r="D29" s="87" t="s">
@@ -52517,9 +52561,9 @@
       <c r="AS29" s="29"/>
     </row>
     <row r="30" spans="1:45">
-      <c r="A30" s="219"/>
-      <c r="B30" s="217"/>
-      <c r="C30" s="217"/>
+      <c r="A30" s="217"/>
+      <c r="B30" s="215"/>
+      <c r="C30" s="215"/>
       <c r="D30" s="87" t="s">
         <v>18</v>
       </c>
@@ -52583,6 +52627,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="E1:AH1"/>
+    <mergeCell ref="I2:T2"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A9:D11"/>
+    <mergeCell ref="E9:AH9"/>
+    <mergeCell ref="I10:T10"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="A13:A30"/>
@@ -52599,14 +52651,6 @@
     <mergeCell ref="C22:C25"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="E1:AH1"/>
-    <mergeCell ref="I2:T2"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A9:D11"/>
-    <mergeCell ref="E9:AH9"/>
-    <mergeCell ref="I10:T10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -52626,133 +52670,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="A1" s="225" t="s">
+      <c r="A1" s="232" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="226"/>
-      <c r="I1" s="226"/>
-      <c r="J1" s="226"/>
-      <c r="K1" s="226"/>
-      <c r="L1" s="226"/>
-      <c r="M1" s="226"/>
-      <c r="N1" s="226"/>
-      <c r="O1" s="227"/>
+      <c r="B1" s="233"/>
+      <c r="C1" s="233"/>
+      <c r="D1" s="233"/>
+      <c r="E1" s="233"/>
+      <c r="F1" s="233"/>
+      <c r="G1" s="233"/>
+      <c r="H1" s="233"/>
+      <c r="I1" s="233"/>
+      <c r="J1" s="233"/>
+      <c r="K1" s="233"/>
+      <c r="L1" s="233"/>
+      <c r="M1" s="233"/>
+      <c r="N1" s="233"/>
+      <c r="O1" s="234"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="228"/>
-      <c r="B2" s="229"/>
-      <c r="C2" s="229"/>
-      <c r="D2" s="229"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="229"/>
-      <c r="G2" s="229"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="229"/>
-      <c r="J2" s="229"/>
-      <c r="K2" s="229"/>
-      <c r="L2" s="229"/>
-      <c r="M2" s="229"/>
-      <c r="N2" s="229"/>
-      <c r="O2" s="230"/>
+      <c r="A2" s="235"/>
+      <c r="B2" s="236"/>
+      <c r="C2" s="236"/>
+      <c r="D2" s="236"/>
+      <c r="E2" s="236"/>
+      <c r="F2" s="236"/>
+      <c r="G2" s="236"/>
+      <c r="H2" s="236"/>
+      <c r="I2" s="236"/>
+      <c r="J2" s="236"/>
+      <c r="K2" s="236"/>
+      <c r="L2" s="236"/>
+      <c r="M2" s="236"/>
+      <c r="N2" s="236"/>
+      <c r="O2" s="237"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="228"/>
-      <c r="B3" s="229"/>
-      <c r="C3" s="229"/>
-      <c r="D3" s="229"/>
-      <c r="E3" s="229"/>
-      <c r="F3" s="229"/>
-      <c r="G3" s="229"/>
-      <c r="H3" s="229"/>
-      <c r="I3" s="229"/>
-      <c r="J3" s="229"/>
-      <c r="K3" s="229"/>
-      <c r="L3" s="229"/>
-      <c r="M3" s="229"/>
-      <c r="N3" s="229"/>
-      <c r="O3" s="230"/>
+      <c r="A3" s="235"/>
+      <c r="B3" s="236"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="236"/>
+      <c r="E3" s="236"/>
+      <c r="F3" s="236"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="236"/>
+      <c r="J3" s="236"/>
+      <c r="K3" s="236"/>
+      <c r="L3" s="236"/>
+      <c r="M3" s="236"/>
+      <c r="N3" s="236"/>
+      <c r="O3" s="237"/>
     </row>
     <row r="4" spans="1:32" ht="15" thickBot="1">
-      <c r="A4" s="231"/>
-      <c r="B4" s="232"/>
-      <c r="C4" s="232"/>
-      <c r="D4" s="232"/>
-      <c r="E4" s="232"/>
-      <c r="F4" s="232"/>
-      <c r="G4" s="232"/>
-      <c r="H4" s="232"/>
-      <c r="I4" s="232"/>
-      <c r="J4" s="232"/>
-      <c r="K4" s="232"/>
-      <c r="L4" s="232"/>
-      <c r="M4" s="232"/>
-      <c r="N4" s="232"/>
-      <c r="O4" s="233"/>
+      <c r="A4" s="238"/>
+      <c r="B4" s="239"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="239"/>
+      <c r="E4" s="239"/>
+      <c r="F4" s="239"/>
+      <c r="G4" s="239"/>
+      <c r="H4" s="239"/>
+      <c r="I4" s="239"/>
+      <c r="J4" s="239"/>
+      <c r="K4" s="239"/>
+      <c r="L4" s="239"/>
+      <c r="M4" s="239"/>
+      <c r="N4" s="239"/>
+      <c r="O4" s="240"/>
     </row>
     <row r="5" spans="1:32">
       <c r="A5" s="93">
         <v>1</v>
       </c>
-      <c r="B5" s="234"/>
-      <c r="C5" s="234"/>
-      <c r="D5" s="234"/>
-      <c r="E5" s="234"/>
-      <c r="F5" s="234"/>
-      <c r="G5" s="234"/>
-      <c r="H5" s="234"/>
-      <c r="I5" s="234"/>
-      <c r="J5" s="234"/>
-      <c r="K5" s="234"/>
-      <c r="L5" s="234"/>
-      <c r="M5" s="234"/>
-      <c r="N5" s="234"/>
-      <c r="O5" s="235"/>
+      <c r="B5" s="228"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
+      <c r="I5" s="228"/>
+      <c r="J5" s="228"/>
+      <c r="K5" s="228"/>
+      <c r="L5" s="228"/>
+      <c r="M5" s="228"/>
+      <c r="N5" s="228"/>
+      <c r="O5" s="229"/>
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="94">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="234"/>
-      <c r="C6" s="234"/>
-      <c r="D6" s="234"/>
-      <c r="E6" s="234"/>
-      <c r="F6" s="234"/>
-      <c r="G6" s="234"/>
-      <c r="H6" s="234"/>
-      <c r="I6" s="234"/>
-      <c r="J6" s="234"/>
-      <c r="K6" s="234"/>
-      <c r="L6" s="234"/>
-      <c r="M6" s="234"/>
-      <c r="N6" s="234"/>
-      <c r="O6" s="235"/>
+      <c r="B6" s="228"/>
+      <c r="C6" s="228"/>
+      <c r="D6" s="228"/>
+      <c r="E6" s="228"/>
+      <c r="F6" s="228"/>
+      <c r="G6" s="228"/>
+      <c r="H6" s="228"/>
+      <c r="I6" s="228"/>
+      <c r="J6" s="228"/>
+      <c r="K6" s="228"/>
+      <c r="L6" s="228"/>
+      <c r="M6" s="228"/>
+      <c r="N6" s="228"/>
+      <c r="O6" s="229"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="94">
         <f t="shared" ref="A7:A42" si="0">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="234"/>
-      <c r="C7" s="234"/>
-      <c r="D7" s="234"/>
-      <c r="E7" s="234"/>
-      <c r="F7" s="234"/>
-      <c r="G7" s="234"/>
-      <c r="H7" s="234"/>
-      <c r="I7" s="234"/>
-      <c r="J7" s="234"/>
-      <c r="K7" s="234"/>
-      <c r="L7" s="234"/>
-      <c r="M7" s="234"/>
-      <c r="N7" s="234"/>
-      <c r="O7" s="235"/>
+      <c r="B7" s="228"/>
+      <c r="C7" s="228"/>
+      <c r="D7" s="228"/>
+      <c r="E7" s="228"/>
+      <c r="F7" s="228"/>
+      <c r="G7" s="228"/>
+      <c r="H7" s="228"/>
+      <c r="I7" s="228"/>
+      <c r="J7" s="228"/>
+      <c r="K7" s="228"/>
+      <c r="L7" s="228"/>
+      <c r="M7" s="228"/>
+      <c r="N7" s="228"/>
+      <c r="O7" s="229"/>
       <c r="W7" s="35"/>
       <c r="X7" s="35"/>
       <c r="Y7" s="35"/>
@@ -52769,20 +52813,20 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="234"/>
-      <c r="C8" s="234"/>
-      <c r="D8" s="234"/>
-      <c r="E8" s="234"/>
-      <c r="F8" s="234"/>
-      <c r="G8" s="234"/>
-      <c r="H8" s="234"/>
-      <c r="I8" s="234"/>
-      <c r="J8" s="234"/>
-      <c r="K8" s="234"/>
-      <c r="L8" s="234"/>
-      <c r="M8" s="234"/>
-      <c r="N8" s="234"/>
-      <c r="O8" s="235"/>
+      <c r="B8" s="228"/>
+      <c r="C8" s="228"/>
+      <c r="D8" s="228"/>
+      <c r="E8" s="228"/>
+      <c r="F8" s="228"/>
+      <c r="G8" s="228"/>
+      <c r="H8" s="228"/>
+      <c r="I8" s="228"/>
+      <c r="J8" s="228"/>
+      <c r="K8" s="228"/>
+      <c r="L8" s="228"/>
+      <c r="M8" s="228"/>
+      <c r="N8" s="228"/>
+      <c r="O8" s="229"/>
       <c r="W8" s="35"/>
       <c r="X8" s="35"/>
       <c r="Y8" s="35"/>
@@ -52799,20 +52843,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="234"/>
-      <c r="C9" s="234"/>
-      <c r="D9" s="234"/>
-      <c r="E9" s="234"/>
-      <c r="F9" s="234"/>
-      <c r="G9" s="234"/>
-      <c r="H9" s="234"/>
-      <c r="I9" s="234"/>
-      <c r="J9" s="234"/>
-      <c r="K9" s="234"/>
-      <c r="L9" s="234"/>
-      <c r="M9" s="234"/>
-      <c r="N9" s="234"/>
-      <c r="O9" s="235"/>
+      <c r="B9" s="228"/>
+      <c r="C9" s="228"/>
+      <c r="D9" s="228"/>
+      <c r="E9" s="228"/>
+      <c r="F9" s="228"/>
+      <c r="G9" s="228"/>
+      <c r="H9" s="228"/>
+      <c r="I9" s="228"/>
+      <c r="J9" s="228"/>
+      <c r="K9" s="228"/>
+      <c r="L9" s="228"/>
+      <c r="M9" s="228"/>
+      <c r="N9" s="228"/>
+      <c r="O9" s="229"/>
       <c r="W9" s="35"/>
       <c r="X9" s="35"/>
       <c r="Y9" s="35"/>
@@ -52829,20 +52873,20 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="234"/>
-      <c r="C10" s="234"/>
-      <c r="D10" s="234"/>
-      <c r="E10" s="234"/>
-      <c r="F10" s="234"/>
-      <c r="G10" s="234"/>
-      <c r="H10" s="234"/>
-      <c r="I10" s="234"/>
-      <c r="J10" s="234"/>
-      <c r="K10" s="234"/>
-      <c r="L10" s="234"/>
-      <c r="M10" s="234"/>
-      <c r="N10" s="234"/>
-      <c r="O10" s="235"/>
+      <c r="B10" s="228"/>
+      <c r="C10" s="228"/>
+      <c r="D10" s="228"/>
+      <c r="E10" s="228"/>
+      <c r="F10" s="228"/>
+      <c r="G10" s="228"/>
+      <c r="H10" s="228"/>
+      <c r="I10" s="228"/>
+      <c r="J10" s="228"/>
+      <c r="K10" s="228"/>
+      <c r="L10" s="228"/>
+      <c r="M10" s="228"/>
+      <c r="N10" s="228"/>
+      <c r="O10" s="229"/>
       <c r="W10" s="35"/>
       <c r="X10" s="35"/>
       <c r="Y10" s="35"/>
@@ -52859,20 +52903,20 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="234"/>
-      <c r="C11" s="234"/>
-      <c r="D11" s="234"/>
-      <c r="E11" s="234"/>
-      <c r="F11" s="234"/>
-      <c r="G11" s="234"/>
-      <c r="H11" s="234"/>
-      <c r="I11" s="234"/>
-      <c r="J11" s="234"/>
-      <c r="K11" s="234"/>
-      <c r="L11" s="234"/>
-      <c r="M11" s="234"/>
-      <c r="N11" s="234"/>
-      <c r="O11" s="235"/>
+      <c r="B11" s="228"/>
+      <c r="C11" s="228"/>
+      <c r="D11" s="228"/>
+      <c r="E11" s="228"/>
+      <c r="F11" s="228"/>
+      <c r="G11" s="228"/>
+      <c r="H11" s="228"/>
+      <c r="I11" s="228"/>
+      <c r="J11" s="228"/>
+      <c r="K11" s="228"/>
+      <c r="L11" s="228"/>
+      <c r="M11" s="228"/>
+      <c r="N11" s="228"/>
+      <c r="O11" s="229"/>
       <c r="W11" s="35"/>
       <c r="X11" s="35"/>
       <c r="Y11" s="35"/>
@@ -52889,20 +52933,20 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="234"/>
-      <c r="C12" s="234"/>
-      <c r="D12" s="234"/>
-      <c r="E12" s="234"/>
-      <c r="F12" s="234"/>
-      <c r="G12" s="234"/>
-      <c r="H12" s="234"/>
-      <c r="I12" s="234"/>
-      <c r="J12" s="234"/>
-      <c r="K12" s="234"/>
-      <c r="L12" s="234"/>
-      <c r="M12" s="234"/>
-      <c r="N12" s="234"/>
-      <c r="O12" s="235"/>
+      <c r="B12" s="228"/>
+      <c r="C12" s="228"/>
+      <c r="D12" s="228"/>
+      <c r="E12" s="228"/>
+      <c r="F12" s="228"/>
+      <c r="G12" s="228"/>
+      <c r="H12" s="228"/>
+      <c r="I12" s="228"/>
+      <c r="J12" s="228"/>
+      <c r="K12" s="228"/>
+      <c r="L12" s="228"/>
+      <c r="M12" s="228"/>
+      <c r="N12" s="228"/>
+      <c r="O12" s="229"/>
       <c r="W12" s="35"/>
       <c r="X12" s="35"/>
       <c r="Y12" s="35"/>
@@ -52919,20 +52963,20 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="234"/>
-      <c r="C13" s="234"/>
-      <c r="D13" s="234"/>
-      <c r="E13" s="234"/>
-      <c r="F13" s="234"/>
-      <c r="G13" s="234"/>
-      <c r="H13" s="234"/>
-      <c r="I13" s="234"/>
-      <c r="J13" s="234"/>
-      <c r="K13" s="234"/>
-      <c r="L13" s="234"/>
-      <c r="M13" s="234"/>
-      <c r="N13" s="234"/>
-      <c r="O13" s="235"/>
+      <c r="B13" s="228"/>
+      <c r="C13" s="228"/>
+      <c r="D13" s="228"/>
+      <c r="E13" s="228"/>
+      <c r="F13" s="228"/>
+      <c r="G13" s="228"/>
+      <c r="H13" s="228"/>
+      <c r="I13" s="228"/>
+      <c r="J13" s="228"/>
+      <c r="K13" s="228"/>
+      <c r="L13" s="228"/>
+      <c r="M13" s="228"/>
+      <c r="N13" s="228"/>
+      <c r="O13" s="229"/>
       <c r="W13" s="35"/>
       <c r="X13" s="35"/>
       <c r="Y13" s="35"/>
@@ -52949,20 +52993,20 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="234"/>
-      <c r="C14" s="234"/>
-      <c r="D14" s="234"/>
-      <c r="E14" s="234"/>
-      <c r="F14" s="234"/>
-      <c r="G14" s="234"/>
-      <c r="H14" s="234"/>
-      <c r="I14" s="234"/>
-      <c r="J14" s="234"/>
-      <c r="K14" s="234"/>
-      <c r="L14" s="234"/>
-      <c r="M14" s="234"/>
-      <c r="N14" s="234"/>
-      <c r="O14" s="235"/>
+      <c r="B14" s="228"/>
+      <c r="C14" s="228"/>
+      <c r="D14" s="228"/>
+      <c r="E14" s="228"/>
+      <c r="F14" s="228"/>
+      <c r="G14" s="228"/>
+      <c r="H14" s="228"/>
+      <c r="I14" s="228"/>
+      <c r="J14" s="228"/>
+      <c r="K14" s="228"/>
+      <c r="L14" s="228"/>
+      <c r="M14" s="228"/>
+      <c r="N14" s="228"/>
+      <c r="O14" s="229"/>
       <c r="W14" s="35"/>
       <c r="X14" s="35"/>
       <c r="Y14" s="35"/>
@@ -52979,20 +53023,20 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="234"/>
-      <c r="C15" s="234"/>
-      <c r="D15" s="234"/>
-      <c r="E15" s="234"/>
-      <c r="F15" s="234"/>
-      <c r="G15" s="234"/>
-      <c r="H15" s="234"/>
-      <c r="I15" s="234"/>
-      <c r="J15" s="234"/>
-      <c r="K15" s="234"/>
-      <c r="L15" s="234"/>
-      <c r="M15" s="234"/>
-      <c r="N15" s="234"/>
-      <c r="O15" s="235"/>
+      <c r="B15" s="228"/>
+      <c r="C15" s="228"/>
+      <c r="D15" s="228"/>
+      <c r="E15" s="228"/>
+      <c r="F15" s="228"/>
+      <c r="G15" s="228"/>
+      <c r="H15" s="228"/>
+      <c r="I15" s="228"/>
+      <c r="J15" s="228"/>
+      <c r="K15" s="228"/>
+      <c r="L15" s="228"/>
+      <c r="M15" s="228"/>
+      <c r="N15" s="228"/>
+      <c r="O15" s="229"/>
       <c r="W15" s="35"/>
       <c r="X15" s="35"/>
       <c r="Y15" s="35"/>
@@ -53009,20 +53053,20 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="234"/>
-      <c r="C16" s="234"/>
-      <c r="D16" s="234"/>
-      <c r="E16" s="234"/>
-      <c r="F16" s="234"/>
-      <c r="G16" s="234"/>
-      <c r="H16" s="234"/>
-      <c r="I16" s="234"/>
-      <c r="J16" s="234"/>
-      <c r="K16" s="234"/>
-      <c r="L16" s="234"/>
-      <c r="M16" s="234"/>
-      <c r="N16" s="234"/>
-      <c r="O16" s="235"/>
+      <c r="B16" s="228"/>
+      <c r="C16" s="228"/>
+      <c r="D16" s="228"/>
+      <c r="E16" s="228"/>
+      <c r="F16" s="228"/>
+      <c r="G16" s="228"/>
+      <c r="H16" s="228"/>
+      <c r="I16" s="228"/>
+      <c r="J16" s="228"/>
+      <c r="K16" s="228"/>
+      <c r="L16" s="228"/>
+      <c r="M16" s="228"/>
+      <c r="N16" s="228"/>
+      <c r="O16" s="229"/>
       <c r="W16" s="35"/>
       <c r="X16" s="35"/>
       <c r="Y16" s="35"/>
@@ -53039,20 +53083,20 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="234"/>
-      <c r="C17" s="234"/>
-      <c r="D17" s="234"/>
-      <c r="E17" s="234"/>
-      <c r="F17" s="234"/>
-      <c r="G17" s="234"/>
-      <c r="H17" s="234"/>
-      <c r="I17" s="234"/>
-      <c r="J17" s="234"/>
-      <c r="K17" s="234"/>
-      <c r="L17" s="234"/>
-      <c r="M17" s="234"/>
-      <c r="N17" s="234"/>
-      <c r="O17" s="235"/>
+      <c r="B17" s="228"/>
+      <c r="C17" s="228"/>
+      <c r="D17" s="228"/>
+      <c r="E17" s="228"/>
+      <c r="F17" s="228"/>
+      <c r="G17" s="228"/>
+      <c r="H17" s="228"/>
+      <c r="I17" s="228"/>
+      <c r="J17" s="228"/>
+      <c r="K17" s="228"/>
+      <c r="L17" s="228"/>
+      <c r="M17" s="228"/>
+      <c r="N17" s="228"/>
+      <c r="O17" s="229"/>
       <c r="W17" s="35"/>
       <c r="X17" s="35"/>
       <c r="Y17" s="35"/>
@@ -53069,20 +53113,20 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="234"/>
-      <c r="C18" s="234"/>
-      <c r="D18" s="234"/>
-      <c r="E18" s="234"/>
-      <c r="F18" s="234"/>
-      <c r="G18" s="234"/>
-      <c r="H18" s="234"/>
-      <c r="I18" s="234"/>
-      <c r="J18" s="234"/>
-      <c r="K18" s="234"/>
-      <c r="L18" s="234"/>
-      <c r="M18" s="234"/>
-      <c r="N18" s="234"/>
-      <c r="O18" s="235"/>
+      <c r="B18" s="228"/>
+      <c r="C18" s="228"/>
+      <c r="D18" s="228"/>
+      <c r="E18" s="228"/>
+      <c r="F18" s="228"/>
+      <c r="G18" s="228"/>
+      <c r="H18" s="228"/>
+      <c r="I18" s="228"/>
+      <c r="J18" s="228"/>
+      <c r="K18" s="228"/>
+      <c r="L18" s="228"/>
+      <c r="M18" s="228"/>
+      <c r="N18" s="228"/>
+      <c r="O18" s="229"/>
       <c r="W18" s="35"/>
       <c r="X18" s="35"/>
       <c r="Y18" s="35"/>
@@ -53099,20 +53143,20 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="234"/>
-      <c r="C19" s="234"/>
-      <c r="D19" s="234"/>
-      <c r="E19" s="234"/>
-      <c r="F19" s="234"/>
-      <c r="G19" s="234"/>
-      <c r="H19" s="234"/>
-      <c r="I19" s="234"/>
-      <c r="J19" s="234"/>
-      <c r="K19" s="234"/>
-      <c r="L19" s="234"/>
-      <c r="M19" s="234"/>
-      <c r="N19" s="234"/>
-      <c r="O19" s="235"/>
+      <c r="B19" s="228"/>
+      <c r="C19" s="228"/>
+      <c r="D19" s="228"/>
+      <c r="E19" s="228"/>
+      <c r="F19" s="228"/>
+      <c r="G19" s="228"/>
+      <c r="H19" s="228"/>
+      <c r="I19" s="228"/>
+      <c r="J19" s="228"/>
+      <c r="K19" s="228"/>
+      <c r="L19" s="228"/>
+      <c r="M19" s="228"/>
+      <c r="N19" s="228"/>
+      <c r="O19" s="229"/>
       <c r="W19" s="35"/>
       <c r="X19" s="35"/>
       <c r="Y19" s="35"/>
@@ -53129,20 +53173,20 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="234"/>
-      <c r="C20" s="234"/>
-      <c r="D20" s="234"/>
-      <c r="E20" s="234"/>
-      <c r="F20" s="234"/>
-      <c r="G20" s="234"/>
-      <c r="H20" s="234"/>
-      <c r="I20" s="234"/>
-      <c r="J20" s="234"/>
-      <c r="K20" s="234"/>
-      <c r="L20" s="234"/>
-      <c r="M20" s="234"/>
-      <c r="N20" s="234"/>
-      <c r="O20" s="235"/>
+      <c r="B20" s="228"/>
+      <c r="C20" s="228"/>
+      <c r="D20" s="228"/>
+      <c r="E20" s="228"/>
+      <c r="F20" s="228"/>
+      <c r="G20" s="228"/>
+      <c r="H20" s="228"/>
+      <c r="I20" s="228"/>
+      <c r="J20" s="228"/>
+      <c r="K20" s="228"/>
+      <c r="L20" s="228"/>
+      <c r="M20" s="228"/>
+      <c r="N20" s="228"/>
+      <c r="O20" s="229"/>
       <c r="W20" s="35"/>
       <c r="X20" s="35"/>
       <c r="Y20" s="35"/>
@@ -53159,20 +53203,20 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="234"/>
-      <c r="C21" s="234"/>
-      <c r="D21" s="234"/>
-      <c r="E21" s="234"/>
-      <c r="F21" s="234"/>
-      <c r="G21" s="234"/>
-      <c r="H21" s="234"/>
-      <c r="I21" s="234"/>
-      <c r="J21" s="234"/>
-      <c r="K21" s="234"/>
-      <c r="L21" s="234"/>
-      <c r="M21" s="234"/>
-      <c r="N21" s="234"/>
-      <c r="O21" s="235"/>
+      <c r="B21" s="228"/>
+      <c r="C21" s="228"/>
+      <c r="D21" s="228"/>
+      <c r="E21" s="228"/>
+      <c r="F21" s="228"/>
+      <c r="G21" s="228"/>
+      <c r="H21" s="228"/>
+      <c r="I21" s="228"/>
+      <c r="J21" s="228"/>
+      <c r="K21" s="228"/>
+      <c r="L21" s="228"/>
+      <c r="M21" s="228"/>
+      <c r="N21" s="228"/>
+      <c r="O21" s="229"/>
       <c r="W21" s="35"/>
       <c r="X21" s="35"/>
       <c r="Y21" s="35"/>
@@ -53189,20 +53233,20 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="234"/>
-      <c r="C22" s="234"/>
-      <c r="D22" s="234"/>
-      <c r="E22" s="234"/>
-      <c r="F22" s="234"/>
-      <c r="G22" s="234"/>
-      <c r="H22" s="234"/>
-      <c r="I22" s="234"/>
-      <c r="J22" s="234"/>
-      <c r="K22" s="234"/>
-      <c r="L22" s="234"/>
-      <c r="M22" s="234"/>
-      <c r="N22" s="234"/>
-      <c r="O22" s="235"/>
+      <c r="B22" s="228"/>
+      <c r="C22" s="228"/>
+      <c r="D22" s="228"/>
+      <c r="E22" s="228"/>
+      <c r="F22" s="228"/>
+      <c r="G22" s="228"/>
+      <c r="H22" s="228"/>
+      <c r="I22" s="228"/>
+      <c r="J22" s="228"/>
+      <c r="K22" s="228"/>
+      <c r="L22" s="228"/>
+      <c r="M22" s="228"/>
+      <c r="N22" s="228"/>
+      <c r="O22" s="229"/>
       <c r="W22" s="35"/>
       <c r="X22" s="35"/>
       <c r="Y22" s="35"/>
@@ -53219,20 +53263,20 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="234"/>
-      <c r="C23" s="234"/>
-      <c r="D23" s="234"/>
-      <c r="E23" s="234"/>
-      <c r="F23" s="234"/>
-      <c r="G23" s="234"/>
-      <c r="H23" s="234"/>
-      <c r="I23" s="234"/>
-      <c r="J23" s="234"/>
-      <c r="K23" s="234"/>
-      <c r="L23" s="234"/>
-      <c r="M23" s="234"/>
-      <c r="N23" s="234"/>
-      <c r="O23" s="235"/>
+      <c r="B23" s="228"/>
+      <c r="C23" s="228"/>
+      <c r="D23" s="228"/>
+      <c r="E23" s="228"/>
+      <c r="F23" s="228"/>
+      <c r="G23" s="228"/>
+      <c r="H23" s="228"/>
+      <c r="I23" s="228"/>
+      <c r="J23" s="228"/>
+      <c r="K23" s="228"/>
+      <c r="L23" s="228"/>
+      <c r="M23" s="228"/>
+      <c r="N23" s="228"/>
+      <c r="O23" s="229"/>
       <c r="W23" s="35"/>
       <c r="X23" s="35"/>
       <c r="Y23" s="35"/>
@@ -53249,20 +53293,20 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="234"/>
-      <c r="C24" s="234"/>
-      <c r="D24" s="234"/>
-      <c r="E24" s="234"/>
-      <c r="F24" s="234"/>
-      <c r="G24" s="234"/>
-      <c r="H24" s="234"/>
-      <c r="I24" s="234"/>
-      <c r="J24" s="234"/>
-      <c r="K24" s="234"/>
-      <c r="L24" s="234"/>
-      <c r="M24" s="234"/>
-      <c r="N24" s="234"/>
-      <c r="O24" s="235"/>
+      <c r="B24" s="228"/>
+      <c r="C24" s="228"/>
+      <c r="D24" s="228"/>
+      <c r="E24" s="228"/>
+      <c r="F24" s="228"/>
+      <c r="G24" s="228"/>
+      <c r="H24" s="228"/>
+      <c r="I24" s="228"/>
+      <c r="J24" s="228"/>
+      <c r="K24" s="228"/>
+      <c r="L24" s="228"/>
+      <c r="M24" s="228"/>
+      <c r="N24" s="228"/>
+      <c r="O24" s="229"/>
       <c r="W24" s="35"/>
       <c r="X24" s="35"/>
       <c r="Y24" s="35"/>
@@ -53279,20 +53323,20 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="234"/>
-      <c r="C25" s="234"/>
-      <c r="D25" s="234"/>
-      <c r="E25" s="234"/>
-      <c r="F25" s="234"/>
-      <c r="G25" s="234"/>
-      <c r="H25" s="234"/>
-      <c r="I25" s="234"/>
-      <c r="J25" s="234"/>
-      <c r="K25" s="234"/>
-      <c r="L25" s="234"/>
-      <c r="M25" s="234"/>
-      <c r="N25" s="234"/>
-      <c r="O25" s="235"/>
+      <c r="B25" s="228"/>
+      <c r="C25" s="228"/>
+      <c r="D25" s="228"/>
+      <c r="E25" s="228"/>
+      <c r="F25" s="228"/>
+      <c r="G25" s="228"/>
+      <c r="H25" s="228"/>
+      <c r="I25" s="228"/>
+      <c r="J25" s="228"/>
+      <c r="K25" s="228"/>
+      <c r="L25" s="228"/>
+      <c r="M25" s="228"/>
+      <c r="N25" s="228"/>
+      <c r="O25" s="229"/>
       <c r="W25" s="35"/>
       <c r="X25" s="35"/>
       <c r="Y25" s="35"/>
@@ -53309,20 +53353,20 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="234"/>
-      <c r="C26" s="234"/>
-      <c r="D26" s="234"/>
-      <c r="E26" s="234"/>
-      <c r="F26" s="234"/>
-      <c r="G26" s="234"/>
-      <c r="H26" s="234"/>
-      <c r="I26" s="234"/>
-      <c r="J26" s="234"/>
-      <c r="K26" s="234"/>
-      <c r="L26" s="234"/>
-      <c r="M26" s="234"/>
-      <c r="N26" s="234"/>
-      <c r="O26" s="235"/>
+      <c r="B26" s="228"/>
+      <c r="C26" s="228"/>
+      <c r="D26" s="228"/>
+      <c r="E26" s="228"/>
+      <c r="F26" s="228"/>
+      <c r="G26" s="228"/>
+      <c r="H26" s="228"/>
+      <c r="I26" s="228"/>
+      <c r="J26" s="228"/>
+      <c r="K26" s="228"/>
+      <c r="L26" s="228"/>
+      <c r="M26" s="228"/>
+      <c r="N26" s="228"/>
+      <c r="O26" s="229"/>
       <c r="W26" s="35"/>
       <c r="X26" s="35"/>
       <c r="Y26" s="35"/>
@@ -53339,20 +53383,20 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="234"/>
-      <c r="C27" s="234"/>
-      <c r="D27" s="234"/>
-      <c r="E27" s="234"/>
-      <c r="F27" s="234"/>
-      <c r="G27" s="234"/>
-      <c r="H27" s="234"/>
-      <c r="I27" s="234"/>
-      <c r="J27" s="234"/>
-      <c r="K27" s="234"/>
-      <c r="L27" s="234"/>
-      <c r="M27" s="234"/>
-      <c r="N27" s="234"/>
-      <c r="O27" s="235"/>
+      <c r="B27" s="228"/>
+      <c r="C27" s="228"/>
+      <c r="D27" s="228"/>
+      <c r="E27" s="228"/>
+      <c r="F27" s="228"/>
+      <c r="G27" s="228"/>
+      <c r="H27" s="228"/>
+      <c r="I27" s="228"/>
+      <c r="J27" s="228"/>
+      <c r="K27" s="228"/>
+      <c r="L27" s="228"/>
+      <c r="M27" s="228"/>
+      <c r="N27" s="228"/>
+      <c r="O27" s="229"/>
       <c r="W27" s="35"/>
       <c r="X27" s="35"/>
       <c r="Y27" s="35"/>
@@ -53369,20 +53413,20 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="234"/>
-      <c r="C28" s="234"/>
-      <c r="D28" s="234"/>
-      <c r="E28" s="234"/>
-      <c r="F28" s="234"/>
-      <c r="G28" s="234"/>
-      <c r="H28" s="234"/>
-      <c r="I28" s="234"/>
-      <c r="J28" s="234"/>
-      <c r="K28" s="234"/>
-      <c r="L28" s="234"/>
-      <c r="M28" s="234"/>
-      <c r="N28" s="234"/>
-      <c r="O28" s="235"/>
+      <c r="B28" s="228"/>
+      <c r="C28" s="228"/>
+      <c r="D28" s="228"/>
+      <c r="E28" s="228"/>
+      <c r="F28" s="228"/>
+      <c r="G28" s="228"/>
+      <c r="H28" s="228"/>
+      <c r="I28" s="228"/>
+      <c r="J28" s="228"/>
+      <c r="K28" s="228"/>
+      <c r="L28" s="228"/>
+      <c r="M28" s="228"/>
+      <c r="N28" s="228"/>
+      <c r="O28" s="229"/>
       <c r="W28" s="35"/>
       <c r="X28" s="35"/>
       <c r="Y28" s="35"/>
@@ -53399,20 +53443,20 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="234"/>
-      <c r="C29" s="234"/>
-      <c r="D29" s="234"/>
-      <c r="E29" s="234"/>
-      <c r="F29" s="234"/>
-      <c r="G29" s="234"/>
-      <c r="H29" s="234"/>
-      <c r="I29" s="234"/>
-      <c r="J29" s="234"/>
-      <c r="K29" s="234"/>
-      <c r="L29" s="234"/>
-      <c r="M29" s="234"/>
-      <c r="N29" s="234"/>
-      <c r="O29" s="235"/>
+      <c r="B29" s="228"/>
+      <c r="C29" s="228"/>
+      <c r="D29" s="228"/>
+      <c r="E29" s="228"/>
+      <c r="F29" s="228"/>
+      <c r="G29" s="228"/>
+      <c r="H29" s="228"/>
+      <c r="I29" s="228"/>
+      <c r="J29" s="228"/>
+      <c r="K29" s="228"/>
+      <c r="L29" s="228"/>
+      <c r="M29" s="228"/>
+      <c r="N29" s="228"/>
+      <c r="O29" s="229"/>
       <c r="W29" s="35"/>
       <c r="X29" s="35"/>
       <c r="Y29" s="35"/>
@@ -53429,20 +53473,20 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B30" s="234"/>
-      <c r="C30" s="234"/>
-      <c r="D30" s="234"/>
-      <c r="E30" s="234"/>
-      <c r="F30" s="234"/>
-      <c r="G30" s="234"/>
-      <c r="H30" s="234"/>
-      <c r="I30" s="234"/>
-      <c r="J30" s="234"/>
-      <c r="K30" s="234"/>
-      <c r="L30" s="234"/>
-      <c r="M30" s="234"/>
-      <c r="N30" s="234"/>
-      <c r="O30" s="235"/>
+      <c r="B30" s="228"/>
+      <c r="C30" s="228"/>
+      <c r="D30" s="228"/>
+      <c r="E30" s="228"/>
+      <c r="F30" s="228"/>
+      <c r="G30" s="228"/>
+      <c r="H30" s="228"/>
+      <c r="I30" s="228"/>
+      <c r="J30" s="228"/>
+      <c r="K30" s="228"/>
+      <c r="L30" s="228"/>
+      <c r="M30" s="228"/>
+      <c r="N30" s="228"/>
+      <c r="O30" s="229"/>
       <c r="W30" s="35"/>
       <c r="X30" s="35"/>
       <c r="Y30" s="35"/>
@@ -53459,20 +53503,20 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B31" s="234"/>
-      <c r="C31" s="234"/>
-      <c r="D31" s="234"/>
-      <c r="E31" s="234"/>
-      <c r="F31" s="234"/>
-      <c r="G31" s="234"/>
-      <c r="H31" s="234"/>
-      <c r="I31" s="234"/>
-      <c r="J31" s="234"/>
-      <c r="K31" s="234"/>
-      <c r="L31" s="234"/>
-      <c r="M31" s="234"/>
-      <c r="N31" s="234"/>
-      <c r="O31" s="235"/>
+      <c r="B31" s="228"/>
+      <c r="C31" s="228"/>
+      <c r="D31" s="228"/>
+      <c r="E31" s="228"/>
+      <c r="F31" s="228"/>
+      <c r="G31" s="228"/>
+      <c r="H31" s="228"/>
+      <c r="I31" s="228"/>
+      <c r="J31" s="228"/>
+      <c r="K31" s="228"/>
+      <c r="L31" s="228"/>
+      <c r="M31" s="228"/>
+      <c r="N31" s="228"/>
+      <c r="O31" s="229"/>
       <c r="W31" s="35"/>
       <c r="X31" s="35"/>
       <c r="Y31" s="35"/>
@@ -53489,20 +53533,20 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B32" s="234"/>
-      <c r="C32" s="234"/>
-      <c r="D32" s="234"/>
-      <c r="E32" s="234"/>
-      <c r="F32" s="234"/>
-      <c r="G32" s="234"/>
-      <c r="H32" s="234"/>
-      <c r="I32" s="234"/>
-      <c r="J32" s="234"/>
-      <c r="K32" s="234"/>
-      <c r="L32" s="234"/>
-      <c r="M32" s="234"/>
-      <c r="N32" s="234"/>
-      <c r="O32" s="235"/>
+      <c r="B32" s="228"/>
+      <c r="C32" s="228"/>
+      <c r="D32" s="228"/>
+      <c r="E32" s="228"/>
+      <c r="F32" s="228"/>
+      <c r="G32" s="228"/>
+      <c r="H32" s="228"/>
+      <c r="I32" s="228"/>
+      <c r="J32" s="228"/>
+      <c r="K32" s="228"/>
+      <c r="L32" s="228"/>
+      <c r="M32" s="228"/>
+      <c r="N32" s="228"/>
+      <c r="O32" s="229"/>
       <c r="W32" s="35"/>
       <c r="X32" s="35"/>
       <c r="Y32" s="35"/>
@@ -53519,20 +53563,20 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B33" s="234"/>
-      <c r="C33" s="234"/>
-      <c r="D33" s="234"/>
-      <c r="E33" s="234"/>
-      <c r="F33" s="234"/>
-      <c r="G33" s="234"/>
-      <c r="H33" s="234"/>
-      <c r="I33" s="234"/>
-      <c r="J33" s="234"/>
-      <c r="K33" s="234"/>
-      <c r="L33" s="234"/>
-      <c r="M33" s="234"/>
-      <c r="N33" s="234"/>
-      <c r="O33" s="235"/>
+      <c r="B33" s="228"/>
+      <c r="C33" s="228"/>
+      <c r="D33" s="228"/>
+      <c r="E33" s="228"/>
+      <c r="F33" s="228"/>
+      <c r="G33" s="228"/>
+      <c r="H33" s="228"/>
+      <c r="I33" s="228"/>
+      <c r="J33" s="228"/>
+      <c r="K33" s="228"/>
+      <c r="L33" s="228"/>
+      <c r="M33" s="228"/>
+      <c r="N33" s="228"/>
+      <c r="O33" s="229"/>
       <c r="W33" s="35"/>
       <c r="X33" s="35"/>
       <c r="Y33" s="35"/>
@@ -53549,20 +53593,20 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B34" s="234"/>
-      <c r="C34" s="234"/>
-      <c r="D34" s="234"/>
-      <c r="E34" s="234"/>
-      <c r="F34" s="234"/>
-      <c r="G34" s="234"/>
-      <c r="H34" s="234"/>
-      <c r="I34" s="234"/>
-      <c r="J34" s="234"/>
-      <c r="K34" s="234"/>
-      <c r="L34" s="234"/>
-      <c r="M34" s="234"/>
-      <c r="N34" s="234"/>
-      <c r="O34" s="235"/>
+      <c r="B34" s="228"/>
+      <c r="C34" s="228"/>
+      <c r="D34" s="228"/>
+      <c r="E34" s="228"/>
+      <c r="F34" s="228"/>
+      <c r="G34" s="228"/>
+      <c r="H34" s="228"/>
+      <c r="I34" s="228"/>
+      <c r="J34" s="228"/>
+      <c r="K34" s="228"/>
+      <c r="L34" s="228"/>
+      <c r="M34" s="228"/>
+      <c r="N34" s="228"/>
+      <c r="O34" s="229"/>
       <c r="W34" s="35"/>
       <c r="X34" s="35"/>
       <c r="Y34" s="35"/>
@@ -53579,20 +53623,20 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B35" s="234"/>
-      <c r="C35" s="234"/>
-      <c r="D35" s="234"/>
-      <c r="E35" s="234"/>
-      <c r="F35" s="234"/>
-      <c r="G35" s="234"/>
-      <c r="H35" s="234"/>
-      <c r="I35" s="234"/>
-      <c r="J35" s="234"/>
-      <c r="K35" s="234"/>
-      <c r="L35" s="234"/>
-      <c r="M35" s="234"/>
-      <c r="N35" s="234"/>
-      <c r="O35" s="235"/>
+      <c r="B35" s="228"/>
+      <c r="C35" s="228"/>
+      <c r="D35" s="228"/>
+      <c r="E35" s="228"/>
+      <c r="F35" s="228"/>
+      <c r="G35" s="228"/>
+      <c r="H35" s="228"/>
+      <c r="I35" s="228"/>
+      <c r="J35" s="228"/>
+      <c r="K35" s="228"/>
+      <c r="L35" s="228"/>
+      <c r="M35" s="228"/>
+      <c r="N35" s="228"/>
+      <c r="O35" s="229"/>
       <c r="W35" s="35"/>
       <c r="X35" s="35"/>
       <c r="Y35" s="35"/>
@@ -53609,20 +53653,20 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B36" s="234"/>
-      <c r="C36" s="234"/>
-      <c r="D36" s="234"/>
-      <c r="E36" s="234"/>
-      <c r="F36" s="234"/>
-      <c r="G36" s="234"/>
-      <c r="H36" s="234"/>
-      <c r="I36" s="234"/>
-      <c r="J36" s="234"/>
-      <c r="K36" s="234"/>
-      <c r="L36" s="234"/>
-      <c r="M36" s="234"/>
-      <c r="N36" s="234"/>
-      <c r="O36" s="235"/>
+      <c r="B36" s="228"/>
+      <c r="C36" s="228"/>
+      <c r="D36" s="228"/>
+      <c r="E36" s="228"/>
+      <c r="F36" s="228"/>
+      <c r="G36" s="228"/>
+      <c r="H36" s="228"/>
+      <c r="I36" s="228"/>
+      <c r="J36" s="228"/>
+      <c r="K36" s="228"/>
+      <c r="L36" s="228"/>
+      <c r="M36" s="228"/>
+      <c r="N36" s="228"/>
+      <c r="O36" s="229"/>
       <c r="W36" s="35"/>
       <c r="X36" s="35"/>
       <c r="Y36" s="35"/>
@@ -53639,20 +53683,20 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B37" s="234"/>
-      <c r="C37" s="234"/>
-      <c r="D37" s="234"/>
-      <c r="E37" s="234"/>
-      <c r="F37" s="234"/>
-      <c r="G37" s="234"/>
-      <c r="H37" s="234"/>
-      <c r="I37" s="234"/>
-      <c r="J37" s="234"/>
-      <c r="K37" s="234"/>
-      <c r="L37" s="234"/>
-      <c r="M37" s="234"/>
-      <c r="N37" s="234"/>
-      <c r="O37" s="235"/>
+      <c r="B37" s="228"/>
+      <c r="C37" s="228"/>
+      <c r="D37" s="228"/>
+      <c r="E37" s="228"/>
+      <c r="F37" s="228"/>
+      <c r="G37" s="228"/>
+      <c r="H37" s="228"/>
+      <c r="I37" s="228"/>
+      <c r="J37" s="228"/>
+      <c r="K37" s="228"/>
+      <c r="L37" s="228"/>
+      <c r="M37" s="228"/>
+      <c r="N37" s="228"/>
+      <c r="O37" s="229"/>
       <c r="W37" s="35"/>
       <c r="X37" s="35"/>
       <c r="Y37" s="35"/>
@@ -53669,20 +53713,20 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B38" s="234"/>
-      <c r="C38" s="234"/>
-      <c r="D38" s="234"/>
-      <c r="E38" s="234"/>
-      <c r="F38" s="234"/>
-      <c r="G38" s="234"/>
-      <c r="H38" s="234"/>
-      <c r="I38" s="234"/>
-      <c r="J38" s="234"/>
-      <c r="K38" s="234"/>
-      <c r="L38" s="234"/>
-      <c r="M38" s="234"/>
-      <c r="N38" s="234"/>
-      <c r="O38" s="235"/>
+      <c r="B38" s="228"/>
+      <c r="C38" s="228"/>
+      <c r="D38" s="228"/>
+      <c r="E38" s="228"/>
+      <c r="F38" s="228"/>
+      <c r="G38" s="228"/>
+      <c r="H38" s="228"/>
+      <c r="I38" s="228"/>
+      <c r="J38" s="228"/>
+      <c r="K38" s="228"/>
+      <c r="L38" s="228"/>
+      <c r="M38" s="228"/>
+      <c r="N38" s="228"/>
+      <c r="O38" s="229"/>
       <c r="W38" s="35"/>
       <c r="X38" s="35"/>
       <c r="Y38" s="35"/>
@@ -53699,20 +53743,20 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B39" s="234"/>
-      <c r="C39" s="234"/>
-      <c r="D39" s="234"/>
-      <c r="E39" s="234"/>
-      <c r="F39" s="234"/>
-      <c r="G39" s="234"/>
-      <c r="H39" s="234"/>
-      <c r="I39" s="234"/>
-      <c r="J39" s="234"/>
-      <c r="K39" s="234"/>
-      <c r="L39" s="234"/>
-      <c r="M39" s="234"/>
-      <c r="N39" s="234"/>
-      <c r="O39" s="235"/>
+      <c r="B39" s="228"/>
+      <c r="C39" s="228"/>
+      <c r="D39" s="228"/>
+      <c r="E39" s="228"/>
+      <c r="F39" s="228"/>
+      <c r="G39" s="228"/>
+      <c r="H39" s="228"/>
+      <c r="I39" s="228"/>
+      <c r="J39" s="228"/>
+      <c r="K39" s="228"/>
+      <c r="L39" s="228"/>
+      <c r="M39" s="228"/>
+      <c r="N39" s="228"/>
+      <c r="O39" s="229"/>
       <c r="W39" s="35"/>
       <c r="X39" s="35"/>
       <c r="Y39" s="35"/>
@@ -53729,20 +53773,20 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B40" s="234"/>
-      <c r="C40" s="234"/>
-      <c r="D40" s="234"/>
-      <c r="E40" s="234"/>
-      <c r="F40" s="234"/>
-      <c r="G40" s="234"/>
-      <c r="H40" s="234"/>
-      <c r="I40" s="234"/>
-      <c r="J40" s="234"/>
-      <c r="K40" s="234"/>
-      <c r="L40" s="234"/>
-      <c r="M40" s="234"/>
-      <c r="N40" s="234"/>
-      <c r="O40" s="235"/>
+      <c r="B40" s="228"/>
+      <c r="C40" s="228"/>
+      <c r="D40" s="228"/>
+      <c r="E40" s="228"/>
+      <c r="F40" s="228"/>
+      <c r="G40" s="228"/>
+      <c r="H40" s="228"/>
+      <c r="I40" s="228"/>
+      <c r="J40" s="228"/>
+      <c r="K40" s="228"/>
+      <c r="L40" s="228"/>
+      <c r="M40" s="228"/>
+      <c r="N40" s="228"/>
+      <c r="O40" s="229"/>
       <c r="W40" s="35"/>
       <c r="X40" s="35"/>
       <c r="Y40" s="35"/>
@@ -53759,20 +53803,20 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B41" s="234"/>
-      <c r="C41" s="234"/>
-      <c r="D41" s="234"/>
-      <c r="E41" s="234"/>
-      <c r="F41" s="234"/>
-      <c r="G41" s="234"/>
-      <c r="H41" s="234"/>
-      <c r="I41" s="234"/>
-      <c r="J41" s="234"/>
-      <c r="K41" s="234"/>
-      <c r="L41" s="234"/>
-      <c r="M41" s="234"/>
-      <c r="N41" s="234"/>
-      <c r="O41" s="235"/>
+      <c r="B41" s="228"/>
+      <c r="C41" s="228"/>
+      <c r="D41" s="228"/>
+      <c r="E41" s="228"/>
+      <c r="F41" s="228"/>
+      <c r="G41" s="228"/>
+      <c r="H41" s="228"/>
+      <c r="I41" s="228"/>
+      <c r="J41" s="228"/>
+      <c r="K41" s="228"/>
+      <c r="L41" s="228"/>
+      <c r="M41" s="228"/>
+      <c r="N41" s="228"/>
+      <c r="O41" s="229"/>
       <c r="W41" s="35"/>
       <c r="X41" s="35"/>
       <c r="Y41" s="35"/>
@@ -53789,20 +53833,20 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B42" s="236"/>
-      <c r="C42" s="236"/>
-      <c r="D42" s="236"/>
-      <c r="E42" s="236"/>
-      <c r="F42" s="236"/>
-      <c r="G42" s="236"/>
-      <c r="H42" s="236"/>
-      <c r="I42" s="236"/>
-      <c r="J42" s="236"/>
-      <c r="K42" s="236"/>
-      <c r="L42" s="236"/>
-      <c r="M42" s="236"/>
-      <c r="N42" s="236"/>
-      <c r="O42" s="237"/>
+      <c r="B42" s="230"/>
+      <c r="C42" s="230"/>
+      <c r="D42" s="230"/>
+      <c r="E42" s="230"/>
+      <c r="F42" s="230"/>
+      <c r="G42" s="230"/>
+      <c r="H42" s="230"/>
+      <c r="I42" s="230"/>
+      <c r="J42" s="230"/>
+      <c r="K42" s="230"/>
+      <c r="L42" s="230"/>
+      <c r="M42" s="230"/>
+      <c r="N42" s="230"/>
+      <c r="O42" s="231"/>
       <c r="W42" s="35"/>
       <c r="X42" s="35"/>
       <c r="Y42" s="35"/>
@@ -53852,6 +53896,36 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A1:O4"/>
+    <mergeCell ref="B5:O5"/>
+    <mergeCell ref="B6:O6"/>
+    <mergeCell ref="B7:O7"/>
+    <mergeCell ref="B8:O8"/>
+    <mergeCell ref="B9:O9"/>
+    <mergeCell ref="B10:O10"/>
+    <mergeCell ref="B11:O11"/>
+    <mergeCell ref="B12:O12"/>
+    <mergeCell ref="B13:O13"/>
+    <mergeCell ref="B14:O14"/>
+    <mergeCell ref="B15:O15"/>
+    <mergeCell ref="B16:O16"/>
+    <mergeCell ref="B17:O17"/>
+    <mergeCell ref="B18:O18"/>
+    <mergeCell ref="B19:O19"/>
+    <mergeCell ref="B20:O20"/>
+    <mergeCell ref="B21:O21"/>
+    <mergeCell ref="B22:O22"/>
+    <mergeCell ref="B23:O23"/>
+    <mergeCell ref="B24:O24"/>
+    <mergeCell ref="B25:O25"/>
+    <mergeCell ref="B26:O26"/>
+    <mergeCell ref="B27:O27"/>
+    <mergeCell ref="B28:O28"/>
+    <mergeCell ref="B29:O29"/>
+    <mergeCell ref="B30:O30"/>
+    <mergeCell ref="B31:O31"/>
+    <mergeCell ref="B32:O32"/>
+    <mergeCell ref="B33:O33"/>
     <mergeCell ref="B39:O39"/>
     <mergeCell ref="B40:O40"/>
     <mergeCell ref="B41:O41"/>
@@ -53861,36 +53935,6 @@
     <mergeCell ref="B36:O36"/>
     <mergeCell ref="B37:O37"/>
     <mergeCell ref="B38:O38"/>
-    <mergeCell ref="B29:O29"/>
-    <mergeCell ref="B30:O30"/>
-    <mergeCell ref="B31:O31"/>
-    <mergeCell ref="B32:O32"/>
-    <mergeCell ref="B33:O33"/>
-    <mergeCell ref="B24:O24"/>
-    <mergeCell ref="B25:O25"/>
-    <mergeCell ref="B26:O26"/>
-    <mergeCell ref="B27:O27"/>
-    <mergeCell ref="B28:O28"/>
-    <mergeCell ref="B19:O19"/>
-    <mergeCell ref="B20:O20"/>
-    <mergeCell ref="B21:O21"/>
-    <mergeCell ref="B22:O22"/>
-    <mergeCell ref="B23:O23"/>
-    <mergeCell ref="B14:O14"/>
-    <mergeCell ref="B15:O15"/>
-    <mergeCell ref="B16:O16"/>
-    <mergeCell ref="B17:O17"/>
-    <mergeCell ref="B18:O18"/>
-    <mergeCell ref="B9:O9"/>
-    <mergeCell ref="B10:O10"/>
-    <mergeCell ref="B11:O11"/>
-    <mergeCell ref="B12:O12"/>
-    <mergeCell ref="B13:O13"/>
-    <mergeCell ref="A1:O4"/>
-    <mergeCell ref="B5:O5"/>
-    <mergeCell ref="B6:O6"/>
-    <mergeCell ref="B7:O7"/>
-    <mergeCell ref="B8:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -53922,14 +53966,14 @@
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
       <c r="I1" s="26"/>
-      <c r="J1" s="170" t="s">
+      <c r="J1" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="170"/>
-      <c r="L1" s="170"/>
-      <c r="M1" s="170"/>
-      <c r="N1" s="170"/>
-      <c r="O1" s="170"/>
+      <c r="K1" s="173"/>
+      <c r="L1" s="173"/>
+      <c r="M1" s="173"/>
+      <c r="N1" s="173"/>
+      <c r="O1" s="173"/>
       <c r="P1" s="26"/>
       <c r="Q1" s="26"/>
       <c r="R1" s="26"/>
@@ -54031,12 +54075,12 @@
       <c r="G2" s="26"/>
       <c r="H2" s="26"/>
       <c r="I2" s="26"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="170"/>
-      <c r="O2" s="170"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="173"/>
+      <c r="L2" s="173"/>
+      <c r="M2" s="173"/>
+      <c r="N2" s="173"/>
+      <c r="O2" s="173"/>
       <c r="P2" s="26"/>
       <c r="Q2" s="26"/>
       <c r="R2" s="26"/>
@@ -54138,12 +54182,12 @@
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
       <c r="I3" s="26"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170"/>
-      <c r="N3" s="170"/>
-      <c r="O3" s="170"/>
+      <c r="J3" s="173"/>
+      <c r="K3" s="173"/>
+      <c r="L3" s="173"/>
+      <c r="M3" s="173"/>
+      <c r="N3" s="173"/>
+      <c r="O3" s="173"/>
       <c r="P3" s="26"/>
       <c r="Q3" s="26"/>
       <c r="R3" s="26"/>
@@ -54245,12 +54289,12 @@
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
       <c r="I4" s="26"/>
-      <c r="J4" s="170"/>
-      <c r="K4" s="170"/>
-      <c r="L4" s="170"/>
-      <c r="M4" s="170"/>
-      <c r="N4" s="170"/>
-      <c r="O4" s="170"/>
+      <c r="J4" s="173"/>
+      <c r="K4" s="173"/>
+      <c r="L4" s="173"/>
+      <c r="M4" s="173"/>
+      <c r="N4" s="173"/>
+      <c r="O4" s="173"/>
       <c r="P4" s="26"/>
       <c r="Q4" s="26"/>
       <c r="R4" s="26"/>
@@ -54362,54 +54406,54 @@
     </row>
     <row r="6" spans="4:108" ht="14.25" customHeight="1">
       <c r="E6" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AC6" s="114"/>
       <c r="AD6" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="4:108" ht="14.25" customHeight="1">
       <c r="F7" s="118"/>
       <c r="G7" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AC7" s="114"/>
     </row>
     <row r="8" spans="4:108">
       <c r="G8" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC8" s="112"/>
       <c r="AD8" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="BF8" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="4:108">
       <c r="G9" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC9" s="112"/>
       <c r="AD9" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="4:108">
       <c r="AC10" s="112"/>
       <c r="AD10" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="4:108">
       <c r="G11" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC11" s="112"/>
       <c r="AD11" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="4:108">
@@ -54568,7 +54612,7 @@
     </row>
     <row r="51" spans="4:53">
       <c r="D51" s="113" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AC51" s="112"/>
       <c r="AD51" s="35"/>
@@ -54597,7 +54641,7 @@
     <row r="57" spans="4:53">
       <c r="F57" s="113"/>
       <c r="L57" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AC57" s="112"/>
       <c r="AD57" s="35"/>
@@ -54810,7 +54854,7 @@
     </row>
     <row r="107" spans="20:30">
       <c r="T107" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AC107" s="112"/>
       <c r="AD107" s="35"/>
@@ -55094,7 +55138,7 @@
   <dimension ref="B1:DD173"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="AD166" sqref="AD166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -55114,14 +55158,14 @@
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
       <c r="I1" s="26"/>
-      <c r="J1" s="170" t="s">
+      <c r="J1" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="170"/>
-      <c r="L1" s="170"/>
-      <c r="M1" s="170"/>
-      <c r="N1" s="170"/>
-      <c r="O1" s="170"/>
+      <c r="K1" s="173"/>
+      <c r="L1" s="173"/>
+      <c r="M1" s="173"/>
+      <c r="N1" s="173"/>
+      <c r="O1" s="173"/>
       <c r="P1" s="26"/>
       <c r="Q1" s="26"/>
       <c r="R1" s="26"/>
@@ -55223,12 +55267,12 @@
       <c r="G2" s="26"/>
       <c r="H2" s="26"/>
       <c r="I2" s="26"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="170"/>
-      <c r="O2" s="170"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="173"/>
+      <c r="L2" s="173"/>
+      <c r="M2" s="173"/>
+      <c r="N2" s="173"/>
+      <c r="O2" s="173"/>
       <c r="P2" s="26"/>
       <c r="Q2" s="26"/>
       <c r="R2" s="26"/>
@@ -55330,12 +55374,12 @@
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
       <c r="I3" s="26"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170"/>
-      <c r="N3" s="170"/>
-      <c r="O3" s="170"/>
+      <c r="J3" s="173"/>
+      <c r="K3" s="173"/>
+      <c r="L3" s="173"/>
+      <c r="M3" s="173"/>
+      <c r="N3" s="173"/>
+      <c r="O3" s="173"/>
       <c r="P3" s="26"/>
       <c r="Q3" s="26"/>
       <c r="R3" s="26"/>
@@ -55437,12 +55481,12 @@
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
       <c r="I4" s="26"/>
-      <c r="J4" s="170"/>
-      <c r="K4" s="170"/>
-      <c r="L4" s="170"/>
-      <c r="M4" s="170"/>
-      <c r="N4" s="170"/>
-      <c r="O4" s="170"/>
+      <c r="J4" s="173"/>
+      <c r="K4" s="173"/>
+      <c r="L4" s="173"/>
+      <c r="M4" s="173"/>
+      <c r="N4" s="173"/>
+      <c r="O4" s="173"/>
       <c r="P4" s="26"/>
       <c r="Q4" s="26"/>
       <c r="R4" s="26"/>
@@ -55554,45 +55598,45 @@
     </row>
     <row r="6" spans="4:108" ht="14.25" customHeight="1">
       <c r="E6" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AC6" s="114"/>
       <c r="AD6" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="4:108" ht="14.25" customHeight="1">
       <c r="F7" s="118"/>
       <c r="G7" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AC7" s="114"/>
     </row>
     <row r="8" spans="4:108">
       <c r="G8" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC8" s="112"/>
       <c r="BF8" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="4:108">
       <c r="G9" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AC9" s="112"/>
       <c r="AE9" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="4:108">
       <c r="G10" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AC10" s="112"/>
       <c r="AE10" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="4:108">
@@ -55664,8 +55708,8 @@
       <c r="AD28" s="35"/>
     </row>
     <row r="29" spans="2:32">
-      <c r="B29" s="238" t="s">
-        <v>250</v>
+      <c r="B29" s="163" t="s">
+        <v>249</v>
       </c>
       <c r="AC29" s="112"/>
       <c r="AD29" s="35"/>
@@ -55757,12 +55801,12 @@
     </row>
     <row r="51" spans="4:53">
       <c r="D51" s="113" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AC51" s="112"/>
       <c r="AD51" s="35"/>
       <c r="AE51" s="113" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52" spans="4:53">
@@ -55789,7 +55833,7 @@
     <row r="57" spans="4:53">
       <c r="F57" s="113"/>
       <c r="L57" s="25" t="s">
-        <v>179</v>
+        <v>256</v>
       </c>
       <c r="AC57" s="112"/>
       <c r="AD57" s="35"/>
@@ -55849,12 +55893,12 @@
       <c r="AC69" s="112"/>
       <c r="AD69" s="35"/>
       <c r="AF69" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="70" spans="5:68">
       <c r="E70" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L70" s="25" t="s">
         <v>30</v>
@@ -56008,7 +56052,7 @@
     </row>
     <row r="107" spans="20:31">
       <c r="T107" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AC107" s="112"/>
       <c r="AD107" s="35"/>
@@ -56021,7 +56065,7 @@
       <c r="AC109" s="112"/>
       <c r="AD109" s="35"/>
       <c r="AE109" s="113" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="110" spans="20:31">
@@ -56178,14 +56222,14 @@
     </row>
     <row r="148" spans="29:30">
       <c r="AC148" s="112"/>
-      <c r="AD148" s="239" t="s">
-        <v>252</v>
+      <c r="AD148" s="164" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="149" spans="29:30">
       <c r="AC149" s="112"/>
-      <c r="AD149" s="240" t="s">
-        <v>253</v>
+      <c r="AD149" s="165" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="150" spans="29:30">
@@ -56301,8 +56345,8 @@
   </sheetPr>
   <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P55" sqref="P55"/>
+    <sheetView topLeftCell="C19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V55" sqref="V55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -56312,23 +56356,23 @@
       <c r="B1" s="151"/>
       <c r="C1" s="151"/>
       <c r="D1" s="151"/>
-      <c r="E1" s="171" t="s">
+      <c r="E1" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
-      <c r="I1" s="171"/>
-      <c r="J1" s="171"/>
-      <c r="K1" s="171"/>
-      <c r="L1" s="171"/>
-      <c r="M1" s="171"/>
-      <c r="N1" s="171"/>
-      <c r="O1" s="171"/>
-      <c r="P1" s="171"/>
-      <c r="Q1" s="171"/>
-      <c r="R1" s="171"/>
-      <c r="S1" s="171"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
+      <c r="H1" s="174"/>
+      <c r="I1" s="174"/>
+      <c r="J1" s="174"/>
+      <c r="K1" s="174"/>
+      <c r="L1" s="174"/>
+      <c r="M1" s="174"/>
+      <c r="N1" s="174"/>
+      <c r="O1" s="174"/>
+      <c r="P1" s="174"/>
+      <c r="Q1" s="174"/>
+      <c r="R1" s="174"/>
+      <c r="S1" s="174"/>
       <c r="T1" s="151"/>
       <c r="U1" s="151"/>
       <c r="V1" s="151"/>
@@ -56338,21 +56382,21 @@
       <c r="B2" s="151"/>
       <c r="C2" s="151"/>
       <c r="D2" s="151"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
-      <c r="I2" s="171"/>
-      <c r="J2" s="171"/>
-      <c r="K2" s="171"/>
-      <c r="L2" s="171"/>
-      <c r="M2" s="171"/>
-      <c r="N2" s="171"/>
-      <c r="O2" s="171"/>
-      <c r="P2" s="171"/>
-      <c r="Q2" s="171"/>
-      <c r="R2" s="171"/>
-      <c r="S2" s="171"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
+      <c r="J2" s="174"/>
+      <c r="K2" s="174"/>
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="174"/>
+      <c r="O2" s="174"/>
+      <c r="P2" s="174"/>
+      <c r="Q2" s="174"/>
+      <c r="R2" s="174"/>
+      <c r="S2" s="174"/>
       <c r="T2" s="151"/>
       <c r="U2" s="151"/>
       <c r="V2" s="151"/>
@@ -56362,21 +56406,21 @@
       <c r="B3" s="151"/>
       <c r="C3" s="151"/>
       <c r="D3" s="151"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="171"/>
-      <c r="I3" s="171"/>
-      <c r="J3" s="171"/>
-      <c r="K3" s="171"/>
-      <c r="L3" s="171"/>
-      <c r="M3" s="171"/>
-      <c r="N3" s="171"/>
-      <c r="O3" s="171"/>
-      <c r="P3" s="171"/>
-      <c r="Q3" s="171"/>
-      <c r="R3" s="171"/>
-      <c r="S3" s="171"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="174"/>
+      <c r="L3" s="174"/>
+      <c r="M3" s="174"/>
+      <c r="N3" s="174"/>
+      <c r="O3" s="174"/>
+      <c r="P3" s="174"/>
+      <c r="Q3" s="174"/>
+      <c r="R3" s="174"/>
+      <c r="S3" s="174"/>
       <c r="T3" s="151"/>
       <c r="U3" s="151"/>
       <c r="V3" s="151"/>
@@ -56386,21 +56430,21 @@
       <c r="B4" s="151"/>
       <c r="C4" s="151"/>
       <c r="D4" s="151"/>
-      <c r="E4" s="171"/>
-      <c r="F4" s="171"/>
-      <c r="G4" s="171"/>
-      <c r="H4" s="171"/>
-      <c r="I4" s="171"/>
-      <c r="J4" s="171"/>
-      <c r="K4" s="171"/>
-      <c r="L4" s="171"/>
-      <c r="M4" s="171"/>
-      <c r="N4" s="171"/>
-      <c r="O4" s="171"/>
-      <c r="P4" s="171"/>
-      <c r="Q4" s="171"/>
-      <c r="R4" s="171"/>
-      <c r="S4" s="171"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="174"/>
+      <c r="G4" s="174"/>
+      <c r="H4" s="174"/>
+      <c r="I4" s="174"/>
+      <c r="J4" s="174"/>
+      <c r="K4" s="174"/>
+      <c r="L4" s="174"/>
+      <c r="M4" s="174"/>
+      <c r="N4" s="174"/>
+      <c r="O4" s="174"/>
+      <c r="P4" s="174"/>
+      <c r="Q4" s="174"/>
+      <c r="R4" s="174"/>
+      <c r="S4" s="174"/>
       <c r="T4" s="151"/>
       <c r="U4" s="151"/>
       <c r="V4" s="151"/>
@@ -56410,37 +56454,37 @@
     </row>
     <row r="12" spans="1:22">
       <c r="E12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="20:20">
       <c r="T32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="20:20">
       <c r="T33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="20:20">
       <c r="T37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="20:20">
       <c r="T42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="20:20">
       <c r="T45" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="20:20">
       <c r="T50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -56457,8 +56501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O344"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+    <sheetView topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -56467,78 +56511,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="175" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="172"/>
-      <c r="I1" s="172"/>
-      <c r="J1" s="172"/>
-      <c r="K1" s="172"/>
-      <c r="L1" s="172"/>
-      <c r="M1" s="172"/>
-      <c r="N1" s="172"/>
-      <c r="O1" s="172"/>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="175"/>
+      <c r="I1" s="175"/>
+      <c r="J1" s="175"/>
+      <c r="K1" s="175"/>
+      <c r="L1" s="175"/>
+      <c r="M1" s="175"/>
+      <c r="N1" s="175"/>
+      <c r="O1" s="175"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="172"/>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="172"/>
-      <c r="L2" s="172"/>
-      <c r="M2" s="172"/>
-      <c r="N2" s="172"/>
-      <c r="O2" s="172"/>
+      <c r="A2" s="175"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="175"/>
+      <c r="K2" s="175"/>
+      <c r="L2" s="175"/>
+      <c r="M2" s="175"/>
+      <c r="N2" s="175"/>
+      <c r="O2" s="175"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="172"/>
-      <c r="B3" s="172"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="172"/>
-      <c r="J3" s="172"/>
-      <c r="K3" s="172"/>
-      <c r="L3" s="172"/>
-      <c r="M3" s="172"/>
-      <c r="N3" s="172"/>
-      <c r="O3" s="172"/>
+      <c r="A3" s="175"/>
+      <c r="B3" s="175"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="175"/>
+      <c r="J3" s="175"/>
+      <c r="K3" s="175"/>
+      <c r="L3" s="175"/>
+      <c r="M3" s="175"/>
+      <c r="N3" s="175"/>
+      <c r="O3" s="175"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="172"/>
-      <c r="B4" s="172"/>
-      <c r="C4" s="172"/>
-      <c r="D4" s="172"/>
-      <c r="E4" s="172"/>
-      <c r="F4" s="172"/>
-      <c r="G4" s="172"/>
-      <c r="H4" s="172"/>
-      <c r="I4" s="172"/>
-      <c r="J4" s="172"/>
-      <c r="K4" s="172"/>
-      <c r="L4" s="172"/>
-      <c r="M4" s="172"/>
-      <c r="N4" s="172"/>
-      <c r="O4" s="172"/>
+      <c r="A4" s="175"/>
+      <c r="B4" s="175"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="175"/>
+      <c r="H4" s="175"/>
+      <c r="I4" s="175"/>
+      <c r="J4" s="175"/>
+      <c r="K4" s="175"/>
+      <c r="L4" s="175"/>
+      <c r="M4" s="175"/>
+      <c r="N4" s="175"/>
+      <c r="O4" s="175"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="52" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -56553,7 +56597,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="52" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="314" spans="10:10">
@@ -56585,73 +56629,73 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:30">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="170" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167" t="s">
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="167"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="170"/>
+      <c r="K1" s="170"/>
+      <c r="L1" s="170"/>
       <c r="M1" s="27"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:30">
-      <c r="A2" s="167"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
+      <c r="A2" s="170"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="170"/>
       <c r="M2" s="27"/>
       <c r="N2" s="27"/>
       <c r="O2" s="27"/>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" s="167"/>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
+      <c r="A3" s="170"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="170"/>
+      <c r="L3" s="170"/>
       <c r="M3" s="27"/>
       <c r="N3" s="27"/>
       <c r="O3" s="27"/>
     </row>
     <row r="4" spans="1:30">
-      <c r="A4" s="167"/>
-      <c r="B4" s="167"/>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="167"/>
-      <c r="L4" s="167"/>
+      <c r="A4" s="170"/>
+      <c r="B4" s="170"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="170"/>
+      <c r="K4" s="170"/>
+      <c r="L4" s="170"/>
       <c r="M4" s="27"/>
       <c r="N4" s="27"/>
       <c r="O4" s="27"/>
@@ -56697,12 +56741,12 @@
       </c>
     </row>
     <row r="56" spans="9:73">
-      <c r="I56" s="173" t="s">
+      <c r="I56" s="176" t="s">
         <v>79</v>
       </c>
-      <c r="J56" s="173"/>
-      <c r="K56" s="173"/>
-      <c r="L56" s="173"/>
+      <c r="J56" s="176"/>
+      <c r="K56" s="176"/>
+      <c r="L56" s="176"/>
       <c r="BU56" t="s">
         <v>81</v>
       </c>
@@ -56749,73 +56793,73 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="170" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167" t="s">
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="167"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="170"/>
+      <c r="K1" s="170"/>
+      <c r="L1" s="170"/>
       <c r="M1" s="27"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="167"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
+      <c r="A2" s="170"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="170"/>
       <c r="M2" s="27"/>
       <c r="N2" s="27"/>
       <c r="O2" s="27"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="167"/>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
+      <c r="A3" s="170"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="170"/>
+      <c r="L3" s="170"/>
       <c r="M3" s="27"/>
       <c r="N3" s="27"/>
       <c r="O3" s="27"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="167"/>
-      <c r="B4" s="167"/>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="167"/>
-      <c r="L4" s="167"/>
+      <c r="A4" s="170"/>
+      <c r="B4" s="170"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="170"/>
+      <c r="K4" s="170"/>
+      <c r="L4" s="170"/>
       <c r="M4" s="27"/>
       <c r="N4" s="27"/>
       <c r="O4" s="27"/>
@@ -56840,10 +56884,10 @@
       <c r="CM38" s="96"/>
     </row>
     <row r="56" spans="9:12">
-      <c r="I56" s="173"/>
-      <c r="J56" s="173"/>
-      <c r="K56" s="173"/>
-      <c r="L56" s="173"/>
+      <c r="I56" s="176"/>
+      <c r="J56" s="176"/>
+      <c r="K56" s="176"/>
+      <c r="L56" s="176"/>
     </row>
     <row r="102" spans="33:33">
       <c r="AG102" t="s">
@@ -56852,7 +56896,7 @@
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -56881,70 +56925,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170" t="s">
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="170"/>
-      <c r="K1" s="170"/>
-      <c r="L1" s="170"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="173"/>
+      <c r="K1" s="173"/>
+      <c r="L1" s="173"/>
       <c r="M1" s="26"/>
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="170"/>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
+      <c r="A2" s="173"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="173"/>
+      <c r="L2" s="173"/>
       <c r="M2" s="26"/>
       <c r="N2" s="26"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="170"/>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
+      <c r="A3" s="173"/>
+      <c r="B3" s="173"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="173"/>
+      <c r="I3" s="173"/>
+      <c r="J3" s="173"/>
+      <c r="K3" s="173"/>
+      <c r="L3" s="173"/>
       <c r="M3" s="26"/>
       <c r="N3" s="26"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="170"/>
-      <c r="B4" s="170"/>
-      <c r="C4" s="170"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="170"/>
-      <c r="J4" s="170"/>
-      <c r="K4" s="170"/>
-      <c r="L4" s="170"/>
+      <c r="A4" s="173"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="173"/>
+      <c r="D4" s="173"/>
+      <c r="E4" s="173"/>
+      <c r="F4" s="173"/>
+      <c r="G4" s="173"/>
+      <c r="H4" s="173"/>
+      <c r="I4" s="173"/>
+      <c r="J4" s="173"/>
+      <c r="K4" s="173"/>
+      <c r="L4" s="173"/>
       <c r="M4" s="26"/>
       <c r="N4" s="26"/>
     </row>
@@ -56968,10 +57012,10 @@
       <c r="CM38" s="108"/>
     </row>
     <row r="56" spans="9:12">
-      <c r="I56" s="174"/>
-      <c r="J56" s="174"/>
-      <c r="K56" s="174"/>
-      <c r="L56" s="174"/>
+      <c r="I56" s="177"/>
+      <c r="J56" s="177"/>
+      <c r="K56" s="177"/>
+      <c r="L56" s="177"/>
     </row>
     <row r="102" spans="33:33">
       <c r="AG102" s="24" t="s">
@@ -56980,7 +57024,7 @@
     </row>
     <row r="213" spans="1:1">
       <c r="A213" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -57005,80 +57049,80 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="170" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167" t="s">
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="167"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="170"/>
+      <c r="K1" s="170"/>
+      <c r="L1" s="170"/>
       <c r="M1" s="27"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="167"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
+      <c r="A2" s="170"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="170"/>
       <c r="M2" s="27"/>
       <c r="N2" s="27"/>
       <c r="O2" s="27"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="167"/>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
+      <c r="A3" s="170"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="170"/>
+      <c r="L3" s="170"/>
       <c r="M3" s="27"/>
       <c r="N3" s="27"/>
       <c r="O3" s="27"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="167"/>
-      <c r="B4" s="167"/>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="167"/>
-      <c r="L4" s="167"/>
+      <c r="A4" s="170"/>
+      <c r="B4" s="170"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="170"/>
+      <c r="K4" s="170"/>
+      <c r="L4" s="170"/>
       <c r="M4" s="27"/>
       <c r="N4" s="27"/>
       <c r="O4" s="27"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
